--- a/DDAf_2024_Tableau_annexe_Tab24.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC54D0F5-60BD-41A2-BA05-BB98B77135A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2CA0F0-0DCC-45DF-A2F3-449464AD005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E5CEE767-9AED-4C8E-A5A8-03FFA4D31329}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E96390A-5D63-447F-9A91-B46A684954E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -1583,21 +1583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F3EA7D-B429-4559-BF1F-135655879211}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE97BC7-AF79-480A-B70B-E4DC83FED66A}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="115" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="115" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1617,7 +1617,7 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2.444</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>25</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0.36880000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>27</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>0.76559999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>1.7809999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>33</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>1.6092</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>35</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>3.573</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>39</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>2.0769250000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>41</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>43</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1.8706100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>45</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>47</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>49</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>1.0526</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1.5227999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>53</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>55</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>57</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0.30813000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>39</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>1.0583566666666699</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>60</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1.8372999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>62</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>2.3161999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>64</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>66</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>70</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>3.0299</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>72</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>5.8752000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>76</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>78</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>80</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>82</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>84</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1.41795</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>86</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>3.1795633333333302</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>39</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>2.7554113333333299</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>89</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0.99839999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>91</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>3.9552</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>93</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>95</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>3.3155999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>97</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>99</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>1.5686</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>39</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>2.4115600000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>102</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>3.6995</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>104</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>106</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.72402</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>108</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>2.2978350000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>110</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>2.5327000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>112</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>9.1961999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>114</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0.96240000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>116</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>118</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>120</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>122</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>124</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>4.4092000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>126</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>4.0350000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>128</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>2.5640999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>130</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>2.4411999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="44"/>
       <c r="B61" s="45" t="s">
         <v>132</v>
@@ -4795,7 +4795,7 @@
         <v>3.3841657692307701</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="72"/>
       <c r="B62" s="73" t="s">
         <v>133</v>
@@ -4846,7 +4846,7 @@
         <v>2.53741924603175</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="72"/>
       <c r="B63" s="79" t="s">
         <v>134</v>
@@ -4897,7 +4897,7 @@
         <v>1.6448352511551201</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="85"/>
       <c r="B64" s="86" t="s">
         <v>135</v>
@@ -4948,7 +4948,7 @@
         <v>2.66815236666667</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="85"/>
       <c r="B65" s="79" t="s">
         <v>136</v>
@@ -4999,7 +4999,7 @@
         <v>2.4883996825396801</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="85"/>
       <c r="B66" s="97" t="s">
         <v>137</v>
@@ -5050,7 +5050,7 @@
         <v>1.90699278811189</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="85"/>
       <c r="B67" s="79" t="s">
         <v>138</v>
@@ -5101,7 +5101,7 @@
         <v>2.75237088888889</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="85"/>
       <c r="B68" s="79" t="s">
         <v>139</v>
@@ -5152,7 +5152,7 @@
         <v>2.8981597368421101</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="85"/>
       <c r="B69" s="79" t="s">
         <v>140</v>
@@ -5203,7 +5203,7 @@
         <v>2.7345855555555598</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="85"/>
       <c r="B70" s="79" t="s">
         <v>141</v>
@@ -5254,7 +5254,7 @@
         <v>1.8101674999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="85"/>
       <c r="B71" s="79" t="s">
         <v>142</v>
@@ -5305,7 +5305,7 @@
         <v>3.3841657692307701</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="85"/>
       <c r="B72" s="79" t="s">
         <v>143</v>
@@ -5356,7 +5356,7 @@
         <v>2.1787526666666701</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="85"/>
       <c r="B73" s="79" t="s">
         <v>144</v>
@@ -5407,7 +5407,7 @@
         <v>2.22487307692308</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="85"/>
       <c r="B74" s="79" t="s">
         <v>144</v>
@@ -5458,7 +5458,7 @@
         <v>2.0256500000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="85"/>
       <c r="B75" s="79" t="s">
         <v>145</v>
@@ -5509,7 +5509,7 @@
         <v>1.0134375</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="85"/>
       <c r="B76" s="103" t="s">
         <v>146</v>
@@ -5560,7 +5560,7 @@
         <v>1.94366541666667</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="85"/>
       <c r="B77" s="79" t="s">
         <v>147</v>
@@ -5611,7 +5611,7 @@
         <v>2.19974711111111</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="85"/>
       <c r="B78" s="79" t="s">
         <v>147</v>
@@ -5662,7 +5662,7 @@
         <v>0.57603886296296003</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="85"/>
       <c r="B79" s="97" t="s">
         <v>148</v>
@@ -5713,7 +5713,7 @@
         <v>0.90424201842105001</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="85"/>
       <c r="B80" s="79" t="s">
         <v>149</v>
@@ -5764,7 +5764,7 @@
         <v>1.53843666666667</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="85"/>
       <c r="B81" s="79" t="s">
         <v>150</v>
@@ -5815,7 +5815,7 @@
         <v>1.6475181666666701</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="85"/>
       <c r="B82" s="79" t="s">
         <v>151</v>
@@ -5866,7 +5866,7 @@
         <v>2.7039163425925898</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="85"/>
       <c r="B83" s="79" t="s">
         <v>152</v>
@@ -5917,7 +5917,7 @@
         <v>1.64447350973783</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="85"/>
       <c r="B84" s="103" t="s">
         <v>153</v>
@@ -5968,7 +5968,7 @@
         <v>2.4224708888888902</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="85"/>
       <c r="B85" s="109" t="s">
         <v>154</v>
@@ -6019,7 +6019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="85"/>
       <c r="B86" s="79" t="s">
         <v>155</v>
@@ -6070,7 +6070,7 @@
         <v>2.6043628260869598</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="85"/>
       <c r="B87" s="79" t="s">
         <v>156</v>
@@ -6121,7 +6121,7 @@
         <v>2.9771078260869599</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="85"/>
       <c r="B88" s="79" t="s">
         <v>157</v>
@@ -6172,7 +6172,7 @@
         <v>2.5835499999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="85"/>
       <c r="B89" s="79" t="s">
         <v>158</v>
@@ -6223,7 +6223,7 @@
         <v>1.6696730208333299</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="85"/>
       <c r="B90" s="97" t="s">
         <v>159</v>
@@ -6274,7 +6274,7 @@
         <v>0.96142051521739003</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="85"/>
       <c r="B91" s="79" t="s">
         <v>160</v>
@@ -6325,7 +6325,7 @@
         <v>2.3335285897435898</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="85"/>
       <c r="B92" s="79" t="s">
         <v>161</v>
@@ -6376,7 +6376,7 @@
         <v>3.4357600000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="85"/>
       <c r="B93" s="79" t="s">
         <v>162</v>
@@ -6427,7 +6427,7 @@
         <v>1.8423624999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="85"/>
       <c r="B94" s="79" t="s">
         <v>163</v>
@@ -6478,7 +6478,7 @@
         <v>2.5488948484848502</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="85"/>
       <c r="B95" s="79" t="s">
         <v>164</v>
@@ -6529,7 +6529,7 @@
         <v>2.4147603030303002</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="85"/>
       <c r="B96" s="79" t="s">
         <v>165</v>
@@ -6580,7 +6580,7 @@
         <v>1.6903916666666701</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="85"/>
       <c r="B97" s="103" t="s">
         <v>166</v>
@@ -6631,7 +6631,7 @@
         <v>2.57396909722222</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="85"/>
       <c r="B98" s="97" t="s">
         <v>167</v>
@@ -6682,7 +6682,7 @@
         <v>3.29329625</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="110"/>
       <c r="B99" s="111"/>
       <c r="C99" s="112"/>
@@ -6701,7 +6701,7 @@
       <c r="P99" s="112"/>
       <c r="Q99" s="112"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>168</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="P100" s="113"/>
       <c r="Q100" s="113"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="P101" s="113"/>
       <c r="Q101" s="113"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
@@ -6761,7 +6761,7 @@
       <c r="P102" s="113"/>
       <c r="Q102" s="113"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="P103" s="113"/>
       <c r="Q103" s="113"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>172</v>
       </c>
@@ -6801,7 +6801,7 @@
       <c r="P104" s="113"/>
       <c r="Q104" s="113"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>173</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="P105" s="113"/>
       <c r="Q105" s="113"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>174</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="P106" s="113"/>
       <c r="Q106" s="113"/>
     </row>
-    <row r="107" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="114" t="s">
         <v>175</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="P107" s="113"/>
       <c r="Q107" s="113"/>
     </row>
-    <row r="108" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="114"/>
       <c r="C108" s="113"/>
       <c r="D108" s="113"/>
@@ -6879,7 +6879,7 @@
       <c r="P108" s="113"/>
       <c r="Q108" s="113"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>177</v>
       </c>
@@ -6899,7 +6899,7 @@
       <c r="P109" s="113"/>
       <c r="Q109" s="113"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>178</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="P110" s="113"/>
       <c r="Q110" s="113"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" s="116" t="s">
         <v>179</v>
       </c>
@@ -6939,7 +6939,7 @@
       <c r="P111" s="113"/>
       <c r="Q111" s="113"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>176</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="P112" s="113"/>
       <c r="Q112" s="113"/>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="113"/>
       <c r="D113" s="113"/>
@@ -6977,7 +6977,7 @@
       <c r="P113" s="113"/>
       <c r="Q113" s="113"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="113"/>
       <c r="D114" s="113"/>
@@ -6997,11 +6997,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6C08BB67-D1EF-4A93-9670-C45A34EC410E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{59B4DB3A-4C19-46EC-9666-5A47DFB84CF2}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C2A35991-6685-4A16-8239-D32D1B280470}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{8F8523BD-C564-4BC8-9EE8-F13F9DF46699}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{6AE8ED5E-12A6-4421-8E85-48DF49CEB530}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1D6797AC-C267-4AB5-A37C-49A09680E046}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BE775617-57C7-41AF-A238-1344C7D26079}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{F386840C-1D16-431E-9556-2C951D89F71D}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F768FD5B-1A8D-40B6-A7AC-E93386C70A64}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E0E8214A-6BD9-410E-B341-E6AA092AEE20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab24.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2CA0F0-0DCC-45DF-A2F3-449464AD005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3621A48A-9674-4883-BCC5-C263449CA8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E96390A-5D63-447F-9A91-B46A684954E6}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{30269498-3ABB-40BC-9272-9E1725340CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -807,26 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD42C2D"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD42C2D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD42C2D"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFD42C2D"/>
       </left>
@@ -842,6 +822,15 @@
         <color rgb="FFD42C2D"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -872,10 +861,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color rgb="FFD42C2D"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFD42C2D"/>
       </bottom>
@@ -883,9 +872,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFD42C2D"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FFD42C2D"/>
       </top>
@@ -922,13 +909,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -940,15 +940,12 @@
     <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -964,18 +961,12 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -991,190 +982,154 @@
     <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,46 +1147,37 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,16 +1189,13 @@
     <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1266,8 +1209,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1583,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE97BC7-AF79-480A-B70B-E4DC83FED66A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D2AC6B-3AE5-4A53-BBB6-1F6640CCC1C5}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1592,7 +1535,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="115" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="97" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="17.5703125" customWidth="1"/>
   </cols>
@@ -1605,5403 +1548,5403 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="7"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>3.2207078002984901</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0.17800207983699001</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>1.70036992568671</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="17">
         <v>1.34233572866521</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="16">
         <v>7.3823282367259102</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>21.174199290879301</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="17">
         <v>3.0681382250931901</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <v>13.399399390151</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="17">
         <v>0</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="17">
         <v>0.74973326580397004</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="17">
         <v>1.7413835276996801</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="17">
         <v>0.60060273780111995</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="19">
         <v>7.7512185945168097</v>
       </c>
-      <c r="P3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="25">
+      <c r="P3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="19">
         <v>2.2559999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="22">
         <v>6.1213437115922904</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="23">
         <v>0.35040226997176999</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="23">
         <v>4.4899509212464404</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="23">
         <v>1.2809906941705</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="22">
         <v>19.939923210345299</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="23">
         <v>2.0089981267648001</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="23">
         <v>9.3220951792974898</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="23">
         <v>0.18457309618854001</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="23">
         <v>5.1098606033519997E-2</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="23">
         <v>0.32960881262238001</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="23">
         <v>1.9825219870430799</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="23">
         <v>0.52090503380062003</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="24">
         <v>8.2623857703741805</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="31">
+      <c r="P4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="24">
         <v>2.444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="27">
         <v>6.5950852431303097</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="28">
         <v>1.4582274374742801</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="28">
         <v>3.5355443356532898</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="28">
         <v>1.6013138585389</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="27">
         <v>16.685282976257099</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="28">
         <v>-1.0561224592026</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="28">
         <v>6.3543435458341797</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="28">
         <v>1.81034034992E-6</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="28">
         <v>0</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="28">
         <v>2.7322824640543502</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="28">
         <v>1.02395938283448</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="28">
         <v>1.08901279983903</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="29">
         <v>0.45296462956334999</v>
       </c>
-      <c r="P5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="37" t="s">
+      <c r="P5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="27">
         <v>10.4199275323311</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="28">
         <v>3.8448128579607799</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="28">
         <v>4.8435753743087702</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="28">
         <v>1.7315395499852999</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="27">
         <v>16.008476681078299</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="28">
         <v>7.6194585017696799</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="28">
         <v>7.5225702114909998</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="28">
         <v>0</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="28">
         <v>0</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="28">
         <v>4.8576060333293896</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="28">
         <v>1.44702526501718</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="28">
         <v>1.9066646763578801</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="29">
         <v>6.9307327385562303</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="30">
         <v>7</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="29">
         <v>0.36880000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="27">
         <v>6.9579169954423703</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="28">
         <v>3.85995472338083</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="28">
         <v>1.55088706307863</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="28">
         <v>1.54707492275942</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="27">
         <v>5.2746470149634304</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="34">
+      <c r="H7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="28">
         <v>4.6823094488329904</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="28">
         <v>6.1531126526100004E-3</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="28">
         <v>3.1166547494000001E-4</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="28">
         <v>4.2033875007333696</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="28">
         <v>0.52870269117874003</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="28">
         <v>1.1611394579880101</v>
       </c>
-      <c r="O7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="36">
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="30">
         <v>4.7</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="27">
         <v>7.5278113221080396</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="28">
         <v>3.9155611988232799</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="28">
         <v>2.3835181659677098</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="28">
         <v>1.22873250486417</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="27">
         <v>21.536320868286399</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="28">
         <v>-5.3770088562860003</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="28">
         <v>5.1934861100715999</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="28">
         <v>0.30675404896894998</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="28">
         <v>3.0731910753899999E-2</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="28">
         <v>0</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="28">
         <v>2.3434500112873802</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="28">
         <v>1.0843941617355499</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="29">
         <v>-3.9488528789602002</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="30">
         <v>5.5</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="29">
         <v>0.76559999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="27">
         <v>8.9001862420357192</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="28">
         <v>0.45527127693297997</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="28">
         <v>4.4184583169584304</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="28">
         <v>4.0264562800712902</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="27">
         <v>12.016925602804999</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="28">
         <v>5.7853706789717796</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="28">
         <v>8.8805975224140408</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="28">
         <v>0</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="28">
         <v>0.67779683529877999</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="28">
         <v>0.89358242492691997</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="28">
         <v>1.5574458722159701</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="28">
         <v>0.81002034915420995</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="29">
         <v>10.72712271979</v>
       </c>
-      <c r="P9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="37">
+      <c r="P9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="29">
         <v>1.7809999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="27">
         <v>8.5580636782555093</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="28">
         <v>0.11404467146412001</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="28">
         <v>5.28777397546183</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="28">
         <v>3.15624517859843</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="27">
         <v>15.087492838427201</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="28">
         <v>-0.86275957500260003</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="28">
         <v>5.9365329144762402</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="28">
         <v>1.07793404566854</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="28">
         <v>1.0063404228717401</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="28">
         <v>0</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="28">
         <v>5.0862194261068501</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="28">
         <v>0.39296743953424002</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="29">
         <v>-2.4896879947078001</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="30">
         <v>6.5</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="29">
         <v>1.6092</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="22">
         <v>6.3067470702673099</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <v>2.0814430681942402</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="23">
         <v>3.5936530910953</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="23">
         <v>0.63165062295720997</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="22">
         <v>18.7424826403862</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="23">
         <v>26.407741731662899</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="23">
         <v>3.4585240991102202</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="23">
         <v>1.2648324452439999E-2</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="23">
         <v>5.4230828549640702</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="23">
         <v>0</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="23">
         <v>1.6499144364196401</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="23">
         <v>0.99330001368717002</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="24">
         <v>21.787320201249798</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="24">
         <v>3.8178000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="32">
         <v>2.9543548294609399</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="33">
         <v>1.64482461017769</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="33">
         <v>0.65267892039558995</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="33">
         <v>0.65685129830467004</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="32">
         <v>7.3377141340762497</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="33">
         <v>5.82875674027615</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="33">
         <v>1.4945202241926001</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="33">
         <v>6.1733422022930001E-2</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="33">
         <v>1.34124783094355</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="33">
         <v>1.8121165335048</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="33">
         <v>1.6530274083211001</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="33">
         <v>1.3170533313111801</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="34">
         <v>1.13809843836519</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="35">
         <v>5.9</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="34">
         <v>3.573</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="38">
         <v>7.2481154092199702</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="39">
         <v>0.51985826559585002</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="40">
         <v>4.2314710344386999</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="39">
         <v>2.4967861902709498</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="38">
         <v>13.834762584505899</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="39">
         <v>4.6602617114154796</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="39">
         <v>5.3339667124751902</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="40">
         <v>3.0474243503517999</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="39">
         <v>0.98985260767242</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="39">
         <v>0.25077822719858001</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="39">
         <v>3.93210453786936</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="39">
         <v>0.53259006291553002</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="41">
         <v>1.2414786378829701</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="42">
         <v>5.7</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="41">
         <v>2.0769250000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="44">
         <v>10.7184117650147</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="45">
         <v>6.0652536284511402</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="28">
         <v>2.1591068402154399</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="45">
         <v>2.4940519575697602</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="44">
         <v>13.1008268876357</v>
       </c>
-      <c r="H14" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="55">
+      <c r="H14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="45">
         <v>4.46760749569673</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="28">
         <v>0</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="45">
         <v>0</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="45">
         <v>11.8882094030826</v>
       </c>
-      <c r="M14" s="56">
+      <c r="M14" s="45">
         <v>1.0645090430370101</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="45">
         <v>1.6481516658623701</v>
       </c>
-      <c r="O14" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="57">
+      <c r="O14" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="47">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q14" s="58">
+      <c r="Q14" s="46">
         <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="27">
         <v>3.76632651668747</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="28">
         <v>0.45468145223400003</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="28">
         <v>0.60587809775616996</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="28">
         <v>2.7057669193726501</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="27">
         <v>11.203040277545099</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="28">
         <v>2.0076863079026301</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="28">
         <v>2.6160849336165302</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="28">
         <v>1.2618769234011999</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="28">
         <v>0</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="28">
         <v>2.6941765136938201</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="28">
         <v>0.97493275057714002</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="28">
         <v>1.38341177909971</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="29">
         <v>-1.6906267252527001</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="30">
         <v>3.1</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="29">
         <v>1.8706100000000001</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="27">
         <v>8.9725790973858395</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="28">
         <v>3.2213985167737</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>1.2197445634000501</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="28">
         <v>4.5314359008888001</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="27">
         <v>20.1161310940014</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="34">
+      <c r="H16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="28">
         <v>1.1828836499169999</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="28">
         <v>0</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="28">
         <v>0.13511975055518999</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="28">
         <v>0</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="28">
         <v>0.45868419062204002</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="28">
         <v>0.96217839951168005</v>
       </c>
-      <c r="O16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="37" t="s">
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="49">
         <v>4.0692451099354496</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="18">
         <v>0.84722887000684999</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>0.68168802934359995</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <v>2.5403279361114</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="49">
         <v>9.2984280287311698</v>
       </c>
-      <c r="H17" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="H17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="18">
         <v>1.2018356753768</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18">
         <v>3.9021688060942901</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="18">
         <v>0</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="18">
         <v>2.9494374069200702</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="18">
         <v>0.67046406912740997</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17" s="18">
         <v>2.3408498797619002</v>
       </c>
-      <c r="O17" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="61">
+      <c r="O17" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="51">
         <v>2.5</v>
       </c>
-      <c r="Q17" s="62">
+      <c r="Q17" s="50">
         <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="49">
         <v>4.0119474098532502</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="18">
         <v>0.44117967104448003</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>1.7319443589593699</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <v>1.8388231519665601</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="49">
         <v>23.030530748349101</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="18">
         <v>-8.1740363316966</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="18">
         <v>1.9552494077852001</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="18">
         <v>13.030051120145099</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="18">
         <v>0</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="18">
         <v>3.25968655842179</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="18">
         <v>2.60440094316932</v>
       </c>
-      <c r="N18" s="61">
+      <c r="N18" s="18">
         <v>0.85912185692454002</v>
       </c>
-      <c r="O18" s="62">
+      <c r="O18" s="50">
         <v>-25.972047402571999</v>
       </c>
-      <c r="P18" s="61">
+      <c r="P18" s="51">
         <v>3.5</v>
       </c>
-      <c r="Q18" s="62">
+      <c r="Q18" s="50">
         <v>1.0526</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="22">
         <v>3.9777964730081599</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="23">
         <v>1.4908943527515699</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="23">
         <v>0.63890966121545001</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="23">
         <v>1.8479925488762401</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="22">
         <v>4.3619626696240204</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="23">
         <v>17.664768540651501</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="23">
         <v>1.96996015021102</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="23">
         <v>0.24058773337364001</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="23">
         <v>4.4439436941283201</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="23">
         <v>9.7554101535653306</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="23">
         <v>0.26196490017471002</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="23">
         <v>1.0317921873081</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="24">
         <v>3.9010300223124399</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="25">
         <v>1.5</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="24">
         <v>1.5227999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="49">
         <v>3.9807876085946901</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="18">
         <v>5.5141623346E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>0.8645982319444</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="18">
         <v>3.0610477542722001</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="49">
         <v>24.090337439559601</v>
       </c>
-      <c r="H20" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="18">
         <v>0.75345339592256</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="18">
         <v>10.069188220782101</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="18">
         <v>0</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="18">
         <v>2.2616893992167602</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="18">
         <v>2.1073067007800099</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="18">
         <v>0.53947187010070996</v>
       </c>
-      <c r="O20" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="62" t="s">
+      <c r="O20" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="49">
         <v>3.4085738115042501</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="18">
         <v>0.36895046255691</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>1.8974720397685001</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="18">
         <v>1.14215133100332</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="49">
         <v>20.3893881965218</v>
       </c>
-      <c r="H21" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="H21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="18">
         <v>2.8937279600182202</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="18">
         <v>6.2615790174703401</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="18">
         <v>5.84531190686E-3</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="18">
         <v>3.2959570252199302</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="18">
         <v>1.35860199955478</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21" s="18">
         <v>0.2703666451858</v>
       </c>
-      <c r="O21" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="62" t="s">
+      <c r="O21" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="32">
         <v>7.3070028919223597</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="33">
         <v>3.3440590774816901</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="33">
         <v>2.96262926602251</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="33">
         <v>1.0003143047930401</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="32">
         <v>20.755382299415601</v>
       </c>
-      <c r="H22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="40">
+      <c r="H22" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="33">
         <v>3.4938202186419698</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="33">
         <v>0</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="33">
         <v>0</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="33">
         <v>1.9672974490194299</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="33">
         <v>1.3743001329957201</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="33">
         <v>1.27249189474899</v>
       </c>
-      <c r="O22" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="42">
+      <c r="O22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="35">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="34">
         <v>0.30813000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="38">
         <v>4.1294149893972198</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="39">
         <v>0.97426204543502004</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="40">
         <v>0.90101655810650005</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="39">
         <v>2.2541363722304002</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="38">
         <v>11.7269676440366</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="39">
         <v>8.1615245300688795</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="39">
         <v>2.2564066054990102</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="40">
         <v>1.94648462570265</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="39">
         <v>2.0292814851046299</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="39">
         <v>5.9739255907869797</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="39">
         <v>0.80873100698627998</v>
       </c>
-      <c r="N23" s="51">
+      <c r="N23" s="39">
         <v>1.1715708798629401</v>
       </c>
-      <c r="O23" s="52">
+      <c r="O23" s="41">
         <v>-1.5120624528755999</v>
       </c>
-      <c r="P23" s="51">
+      <c r="P23" s="42">
         <v>3.4666666666666699</v>
       </c>
-      <c r="Q23" s="52">
+      <c r="Q23" s="41">
         <v>1.0583566666666699</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="44">
         <v>5.8699207331598702</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="45">
         <v>0.70820221781016002</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="28">
         <v>1.2938391324998999</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="45">
         <v>3.86787907436142</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="44">
         <v>7.1924419493615099</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="45">
         <v>2.8087043483515299</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="45">
         <v>2.5568400423748399</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="28">
         <v>0</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="45">
         <v>0</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="45">
         <v>1.60873252827251</v>
       </c>
-      <c r="M24" s="56">
+      <c r="M24" s="45">
         <v>1.1700812675827299</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N24" s="45">
         <v>1.12818767329861</v>
       </c>
-      <c r="O24" s="58">
+      <c r="O24" s="46">
         <v>1.4585429215725301</v>
       </c>
-      <c r="P24" s="57">
+      <c r="P24" s="47">
         <v>2.5</v>
       </c>
-      <c r="Q24" s="58">
+      <c r="Q24" s="46">
         <v>1.8372999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="27">
         <v>2.1477279715932598</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="28">
         <v>0.46703547312520999</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="28">
         <v>1.0754430310035801</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="28">
         <v>0.60524955679484005</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="27">
         <v>10.354901541418499</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="28">
         <v>1.99633539948439</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="28">
         <v>7.5514276076772902</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="28">
         <v>0</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="28">
         <v>0</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="28">
         <v>0.32173611887663001</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="28">
         <v>0.49382291562691999</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="28">
         <v>1.99495095419232</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="29">
         <v>6.7372530184658199</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="30">
         <v>3.6</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="29">
         <v>2.3161999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="37" t="s">
+      <c r="C26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="27">
         <v>3.48097347694805</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="28">
         <v>1.1991379458476601</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="28">
         <v>0.98278809736679995</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="28">
         <v>1.2990473330527901</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="27">
         <v>8.7558594594716705</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="28">
         <v>21.475341615214401</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="28">
         <v>3.4065110555705198</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="28">
         <v>2.7833983641600002E-6</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="28">
         <v>6.9594634465950003E-2</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="28">
         <v>6.0319471245868401</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="28">
         <v>0.87469132448547005</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="28">
         <v>0.89317351455609995</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="29">
         <v>17.012443289292101</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="30">
         <v>4.7</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="29">
         <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="27">
         <v>4.4653227558143396</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="28">
         <v>0.76897426780856004</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="28">
         <v>2.2043432558153899</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="28">
         <v>1.4920052363116501</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="27">
         <v>11.7050595327488</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="28">
         <v>3.3469912041976602</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="28">
         <v>4.7748815963637998</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="28">
         <v>0</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="28">
         <v>1.33256084842E-3</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="28">
         <v>1.26391657498648</v>
       </c>
-      <c r="M28" s="35">
+      <c r="M28" s="28">
         <v>0.94727760497096003</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="28">
         <v>1.01668841864204</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="29">
         <v>4.89265764111357</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="30">
         <v>5.3</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="29">
         <v>3.7</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="27">
         <v>3.7231612196109101</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="28">
         <v>1.69786317967652</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="28">
         <v>0.68988532590123997</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="28">
         <v>1.33541256048784</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="27">
         <v>6.3421579468732698</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="28">
         <v>1.83097902827979</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="28">
         <v>2.0187304414571998</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="28">
         <v>2.8952795062540001E-2</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="28">
         <v>0</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="28">
         <v>5.6100183680120601</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="28">
         <v>1.2864653399324699</v>
       </c>
-      <c r="N29" s="36">
+      <c r="N29" s="28">
         <v>1.1266969379755001</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="29">
         <v>-4.2024239712456</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="30">
         <v>2.8</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="29">
         <v>3.0299</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="27">
         <v>6.4780901749429098</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="28">
         <v>1.255337629121E-2</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="28">
         <v>3.3274882422165599</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="28">
         <v>3.1380487626886699</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="27">
         <v>12.037113920377299</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="28">
         <v>-6.725986326149</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="28">
         <v>4.8590868210292202</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="28">
         <v>0</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="28">
         <v>0</v>
       </c>
-      <c r="L30" s="34">
+      <c r="L30" s="28">
         <v>2.0597476452200001E-3</v>
       </c>
-      <c r="M30" s="35">
+      <c r="M30" s="28">
         <v>1.2930642498854901</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="28">
         <v>0.17219005367751999</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="29">
         <v>-3.3342135563280002</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="30">
         <v>4.7</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="29">
         <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="27">
         <v>7.4837508518137001</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="28">
         <v>2.6780639666325601</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="28">
         <v>3.0263445115162599</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="28">
         <v>1.7793426114397899</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="27">
         <v>12.568268759814799</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="28">
         <v>-0.1612163778049</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="28">
         <v>2.57569885195098</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="28">
         <v>6.3581385398999996E-4</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="28">
         <v>0</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="28">
         <v>3.8645880521429299</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="28">
         <v>0.54770907066462005</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="28">
         <v>2.1300435243195999</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="29">
         <v>-4.1284939868350996</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="30">
         <v>3.1</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="29">
         <v>5.8752000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="27">
         <v>5.9596745567537699</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="28">
         <v>1.895291964786E-2</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="28">
         <v>4.6577919345063101</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="28">
         <v>1.2829296684362299</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="27">
         <v>9.8477707571609301</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="28">
         <v>-4.6276199643857003</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="28">
         <v>3.97065947929568</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="28">
         <v>0</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="28">
         <v>0</v>
       </c>
-      <c r="L32" s="34">
+      <c r="L32" s="28">
         <v>0.11983129443324</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="28">
         <v>1.72307144631319</v>
       </c>
-      <c r="N32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="36">
+      <c r="N32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="30">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q32" s="37" t="s">
+      <c r="Q32" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="35">
+      <c r="C33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="27">
         <v>5.6181306965069604</v>
       </c>
-      <c r="H33" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="34">
+      <c r="H33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="28">
         <v>0.73709788614017002</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="28">
         <v>0</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="28">
         <v>0</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L33" s="28">
         <v>8.5664409741546006</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="28">
         <v>0.31924829850963998</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="28">
         <v>5.3716110138099502</v>
       </c>
-      <c r="O33" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="37" t="s">
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="49">
         <v>9.3238648929968893</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="18">
         <v>4.1321716271622204</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="18">
         <v>0.71819912777534001</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="18">
         <v>4.4734936902109901</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="21">
+      <c r="G34" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="18">
         <v>10.311214424492301</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="18">
         <v>3.3060116839650003E-2</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="18">
         <v>4.1104809168990197</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="18">
         <v>1.3579689733039</v>
       </c>
-      <c r="N34" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="61">
+      <c r="N34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="51">
         <v>1.5</v>
       </c>
-      <c r="Q34" s="62" t="s">
+      <c r="Q34" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="27">
         <v>3.0096538794748202</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="28">
         <v>0.20758070268133999</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="28">
         <v>1.0285877071254601</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="28">
         <v>1.7734853703964899</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="27">
         <v>5.7609400045581101</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="28">
         <v>18.240198604441701</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="28">
         <v>1.6165758119426299</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="28">
         <v>0.18111411947559</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="28">
         <v>2.3411578660851702</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="28">
         <v>0</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="28">
         <v>2.5476795099563501</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="28">
         <v>1.5564975774712899</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="29">
         <v>13.230325343395901</v>
       </c>
-      <c r="P35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="37">
+      <c r="P35" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="29">
         <v>1.41</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="27">
         <v>3.0566607658394398</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="28">
         <v>1.2703680877497701</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="28">
         <v>0.86158234197629002</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="28">
         <v>0.92471045100718996</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="27">
         <v>9.7752371015203998</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="28">
         <v>24.3207601151795</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="28">
         <v>3.6696326535504702</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="28">
         <v>0.11468541464437999</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="28">
         <v>0.89838414625963003</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36" s="28">
         <v>0</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M36" s="28">
         <v>0.84098065761592999</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="28">
         <v>1.36552490052505</v>
       </c>
-      <c r="O36" s="37">
+      <c r="O36" s="29">
         <v>24.770817649685</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36" s="30">
         <v>3.7</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="29">
         <v>1.41795</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="32">
         <v>4.3206487244443696</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="33">
         <v>1.73076568359586</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="33">
         <v>0.94409367029920999</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="33">
         <v>1.6457896388439599</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="32">
         <v>5.94093016005551</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="33">
         <v>6.6345292682522796</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="33">
         <v>1.5097393983080101</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="33">
         <v>0</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="33">
         <v>0</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="33">
         <v>7.5034817519680299</v>
       </c>
-      <c r="M37" s="41">
+      <c r="M37" s="33">
         <v>0.68427918528960996</v>
       </c>
-      <c r="N37" s="42">
+      <c r="N37" s="33">
         <v>0.96477904033282003</v>
       </c>
-      <c r="O37" s="43">
+      <c r="O37" s="34">
         <v>-1.0082713110302</v>
       </c>
-      <c r="P37" s="42">
+      <c r="P37" s="35">
         <v>2.1</v>
       </c>
-      <c r="Q37" s="43">
+      <c r="Q37" s="34">
         <v>3.1795633333333302</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="38">
         <v>3.8590827850075402</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="39">
         <v>1.0341469464713</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="40">
         <v>1.3492830287137001</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="39">
         <v>1.4756528143001599</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="38">
         <v>8.8151406085356996</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="39">
         <v>13.6844421914859</v>
       </c>
-      <c r="I38" s="47">
+      <c r="I38" s="39">
         <v>3.2462611465890499</v>
       </c>
-      <c r="J38" s="48">
+      <c r="J38" s="40">
         <v>4.9506262450199998E-2</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="39">
         <v>0.55325358248107004</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L38" s="39">
         <v>2.8898875070658199</v>
       </c>
-      <c r="M38" s="50">
+      <c r="M38" s="39">
         <v>1.1672986997065899</v>
       </c>
-      <c r="N38" s="51">
+      <c r="N38" s="39">
         <v>1.1427982895446001</v>
       </c>
-      <c r="O38" s="52">
+      <c r="O38" s="41">
         <v>11.127958996826701</v>
       </c>
-      <c r="P38" s="51">
+      <c r="P38" s="42">
         <v>3.4909090909090899</v>
       </c>
-      <c r="Q38" s="52">
+      <c r="Q38" s="41">
         <v>2.7554113333333299</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="16">
         <v>5.43324640246274</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="17">
         <v>2.2606597541899999E-3</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="18">
         <v>3.3138811239763299</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="17">
         <v>2.1171046611887001</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="16">
         <v>7.7677030652533698</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="17">
         <v>19.246393275488298</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="17">
         <v>3.85153210794613</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="18">
         <v>6.5520189250169496</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="17">
         <v>1.30607757551E-3</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="17">
         <v>0</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="17">
         <v>4.2311134595506701</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="17">
         <v>0.32771442066248002</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="19">
         <v>11.9857725006287</v>
       </c>
-      <c r="P39" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="25">
+      <c r="P39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="19">
         <v>0.99839999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="27">
         <v>4.2395091155983504</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="28">
         <v>4.7533610036199998E-2</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="28">
         <v>1.3535198229383301</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="28">
         <v>2.8384554275338898</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="27">
         <v>5.6611070240001302</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="28">
         <v>4.9593454061749602</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="28">
         <v>4.0810152235171397</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="28">
         <v>2.0048282492740901</v>
       </c>
-      <c r="K40" s="34">
+      <c r="K40" s="28">
         <v>0</v>
       </c>
-      <c r="L40" s="34">
+      <c r="L40" s="28">
         <v>0.12176737286536</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="28">
         <v>2.82135253610276</v>
       </c>
-      <c r="N40" s="36">
+      <c r="N40" s="28">
         <v>0.62119569249724005</v>
       </c>
-      <c r="O40" s="37">
+      <c r="O40" s="29">
         <v>3.4712167789526598</v>
       </c>
-      <c r="P40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="37">
+      <c r="P40" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="29">
         <v>3.9552</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="22">
+      <c r="C41" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="49">
         <v>10.4242292827575</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="18">
         <v>-25.695246540355001</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="18">
         <v>2.3046550218299502</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="18">
         <v>1.30559936547754</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="18">
         <v>0</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="18">
         <v>7.37168472597E-2</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="18">
         <v>3.9413681514877101</v>
       </c>
-      <c r="N41" s="61">
+      <c r="N41" s="18">
         <v>0.62815817672744001</v>
       </c>
-      <c r="O41" s="62">
+      <c r="O41" s="50">
         <v>-29.339434059477998</v>
       </c>
-      <c r="P41" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="62" t="s">
+      <c r="P41" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="49">
         <v>3.3645202149408502</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="18">
         <v>0.23579886374212999</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="18">
         <v>1.4829393872416901</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="18">
         <v>1.64578185977726</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="49">
         <v>7.5372225429134199</v>
       </c>
-      <c r="H42" s="60">
+      <c r="H42" s="18">
         <v>28.530637177346499</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="18">
         <v>2.87331180607055</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="18">
         <v>1.5309250865339999E-2</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="18">
         <v>0.26303769594635001</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="18">
         <v>0.68106162344279997</v>
       </c>
-      <c r="M42" s="22">
+      <c r="M42" s="18">
         <v>1.9817816819537699</v>
       </c>
-      <c r="N42" s="61">
+      <c r="N42" s="18">
         <v>0.92959927591337999</v>
       </c>
-      <c r="O42" s="62">
+      <c r="O42" s="50">
         <v>27.533159455295401</v>
       </c>
-      <c r="P42" s="61">
+      <c r="P42" s="51">
         <v>1.9</v>
       </c>
-      <c r="Q42" s="62">
+      <c r="Q42" s="50">
         <v>3.3155999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="27">
         <v>5.8380517122822297</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="28">
         <v>0.11946192137062001</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="28">
         <v>2.4655194767062198</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="28">
         <v>3.25307037981087</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="27">
         <v>9.9412614930891596</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="28">
         <v>17.754606406547499</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="28">
         <v>5.1500505235763399</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="28">
         <v>5.3876982662299996E-3</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="28">
         <v>7.680404223666E-2</v>
       </c>
-      <c r="L43" s="34">
+      <c r="L43" s="28">
         <v>0</v>
       </c>
-      <c r="M43" s="35">
+      <c r="M43" s="28">
         <v>2.2478350786719199</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="28">
         <v>0.57346848564727004</v>
       </c>
-      <c r="O43" s="37">
+      <c r="O43" s="29">
         <v>20.001161625301702</v>
       </c>
-      <c r="P43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="37">
+      <c r="P43" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="29">
         <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="32">
         <v>7.0499939550292199</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="33">
         <v>3.083445598936E-2</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="33">
         <v>4.3099368460142502</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="33">
         <v>2.7092226350145299</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="32">
         <v>11.855171578749101</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H44" s="33">
         <v>-5.7481476747902001</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="33">
         <v>5.7060045696137998</v>
       </c>
-      <c r="J44" s="40">
+      <c r="J44" s="33">
         <v>0.65489508818117004</v>
       </c>
-      <c r="K44" s="40">
+      <c r="K44" s="33">
         <v>0</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="33">
         <v>0.24055189885492001</v>
       </c>
-      <c r="M44" s="41">
+      <c r="M44" s="33">
         <v>2.69727430317498</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N44" s="33">
         <v>0.33393445394065002</v>
       </c>
-      <c r="O44" s="43">
+      <c r="O44" s="34">
         <v>-3.9687988493280999</v>
       </c>
-      <c r="P44" s="42">
+      <c r="P44" s="35">
         <v>6.6</v>
       </c>
-      <c r="Q44" s="43">
+      <c r="Q44" s="34">
         <v>1.5686</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="38">
         <v>4.8646801124214401</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="39">
         <v>4.6966980049020002E-2</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="53">
         <v>2.1164750388699098</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="39">
         <v>2.7012379630787802</v>
       </c>
-      <c r="G45" s="65">
+      <c r="G45" s="38">
         <v>7.2005455958573101</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="39">
         <v>8.0154288585386908</v>
       </c>
-      <c r="I45" s="47">
+      <c r="I45" s="39">
         <v>4.15105914631439</v>
       </c>
-      <c r="J45" s="64">
+      <c r="J45" s="53">
         <v>2.6655425616125501</v>
       </c>
-      <c r="K45" s="47">
+      <c r="K45" s="39">
         <v>1.21273540826E-2</v>
       </c>
-      <c r="L45" s="47">
+      <c r="L45" s="39">
         <v>8.9496682868550004E-2</v>
       </c>
-      <c r="M45" s="50">
+      <c r="M45" s="39">
         <v>3.1043332567777502</v>
       </c>
-      <c r="N45" s="51">
+      <c r="N45" s="39">
         <v>0.53797156547811997</v>
       </c>
-      <c r="O45" s="52">
+      <c r="O45" s="41">
         <v>5.7570165840334901</v>
       </c>
-      <c r="P45" s="51">
+      <c r="P45" s="42">
         <v>4.25</v>
       </c>
-      <c r="Q45" s="52">
+      <c r="Q45" s="41">
         <v>2.4115600000000001</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="44">
         <v>2.4716823079875798</v>
       </c>
-      <c r="D46" s="55">
+      <c r="D46" s="45">
         <v>0.74302817381105002</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="28">
         <v>0.27620631727723</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="45">
         <v>1.4524477660821999</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="44">
         <v>10.5527492120313</v>
       </c>
-      <c r="H46" s="54">
+      <c r="H46" s="45">
         <v>10.731346161924201</v>
       </c>
-      <c r="I46" s="55">
+      <c r="I46" s="45">
         <v>2.8984546732641698</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="28">
         <v>2.9647417067779999E-2</v>
       </c>
-      <c r="K46" s="55">
+      <c r="K46" s="45">
         <v>0</v>
       </c>
-      <c r="L46" s="55">
+      <c r="L46" s="45">
         <v>0</v>
       </c>
-      <c r="M46" s="56">
+      <c r="M46" s="45">
         <v>2.0723069667621501</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="45">
         <v>2.22665864729424</v>
       </c>
-      <c r="O46" s="58">
+      <c r="O46" s="46">
         <v>9.30118780406419</v>
       </c>
-      <c r="P46" s="57">
+      <c r="P46" s="47">
         <v>2.9</v>
       </c>
-      <c r="Q46" s="58">
+      <c r="Q46" s="46">
         <v>3.6995</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="27">
         <v>6.5676487540817003</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="28">
         <v>1.1924359370811899</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="28">
         <v>2.8542306354837099</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="28">
         <v>2.5209819863431902</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="27">
         <v>7.8741854086094296</v>
       </c>
-      <c r="H47" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="34">
+      <c r="H47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="28">
         <v>4.0455547358914501</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="28">
         <v>0</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="28">
         <v>3.2483256692831399</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="28">
         <v>0</v>
       </c>
-      <c r="M47" s="35">
+      <c r="M47" s="28">
         <v>1.2507899853501701</v>
       </c>
-      <c r="N47" s="36">
+      <c r="N47" s="28">
         <v>2.32352280126858</v>
       </c>
-      <c r="O47" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="36">
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="30">
         <v>5.4</v>
       </c>
-      <c r="Q47" s="37" t="s">
+      <c r="Q47" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="60">
+      <c r="C48" s="49">
         <v>6.2482410503606998</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="18">
         <v>0.73453898572682996</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="18">
         <v>4.0863617814377902</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="18">
         <v>1.4273402876529799</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="49">
         <v>10.3703577287136</v>
       </c>
-      <c r="H48" s="60">
+      <c r="H48" s="18">
         <v>21.056609761687302</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="18">
         <v>4.7367444099648797</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="18">
         <v>0.30919911064060002</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="18">
         <v>0</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L48" s="18">
         <v>0.29630485941582002</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="18">
         <v>1.2687410508686701</v>
       </c>
-      <c r="N48" s="61">
+      <c r="N48" s="18">
         <v>0.43358284588812002</v>
       </c>
-      <c r="O48" s="62">
+      <c r="O48" s="50">
         <v>23.485526304838999</v>
       </c>
-      <c r="P48" s="61">
+      <c r="P48" s="51">
         <v>5.2</v>
       </c>
-      <c r="Q48" s="62">
+      <c r="Q48" s="50">
         <v>0.72402</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="27">
         <v>3.6180452169581501</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="28">
         <v>0.49002936323590002</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="28">
         <v>1.32990694864124</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="28">
         <v>1.7981088222486299</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="27">
         <v>3.1260859828501601</v>
       </c>
-      <c r="H49" s="33">
+      <c r="H49" s="28">
         <v>17.435615567745799</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="28">
         <v>3.0038576811452899</v>
       </c>
-      <c r="J49" s="34">
+      <c r="J49" s="28">
         <v>0.28302188678835999</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="28">
         <v>0.51612281410731997</v>
       </c>
-      <c r="L49" s="34">
+      <c r="L49" s="28">
         <v>0</v>
       </c>
-      <c r="M49" s="35">
+      <c r="M49" s="28">
         <v>0.73295230722846005</v>
       </c>
-      <c r="N49" s="36">
+      <c r="N49" s="28">
         <v>0.99072462209598</v>
       </c>
-      <c r="O49" s="37">
+      <c r="O49" s="29">
         <v>17.916651618671001</v>
       </c>
-      <c r="P49" s="36">
+      <c r="P49" s="30">
         <v>3.3</v>
       </c>
-      <c r="Q49" s="37">
+      <c r="Q49" s="29">
         <v>2.2978350000000001</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="27">
         <v>3.7339217315664102</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="28">
         <v>0.28666286198829</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="28">
         <v>2.4289355297642401</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="28">
         <v>1.0183232772215201</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="27">
         <v>16.358141216216701</v>
       </c>
-      <c r="H50" s="33">
+      <c r="H50" s="28">
         <v>10.106097647159</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50" s="28">
         <v>2.62448278907726</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J50" s="28">
         <v>0</v>
       </c>
-      <c r="K50" s="34">
+      <c r="K50" s="28">
         <v>0</v>
       </c>
-      <c r="L50" s="34">
+      <c r="L50" s="28">
         <v>3.0390063475195102</v>
       </c>
-      <c r="M50" s="35">
+      <c r="M50" s="28">
         <v>1.36908302711483</v>
       </c>
-      <c r="N50" s="36">
+      <c r="N50" s="28">
         <v>0.96468726175412001</v>
       </c>
-      <c r="O50" s="37">
+      <c r="O50" s="29">
         <v>7.3578037998478498</v>
       </c>
-      <c r="P50" s="36">
+      <c r="P50" s="30">
         <v>2.4</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q50" s="29">
         <v>2.5327000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="22">
         <v>4.0195272742818897</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="23">
         <v>0.36720850478073003</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="23">
         <v>2.1122742627655899</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="23">
         <v>1.5400444391646799</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="22">
         <v>9.4853588985223691</v>
       </c>
-      <c r="H51" s="27">
+      <c r="H51" s="23">
         <v>18.902609156900599</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="23">
         <v>4.29085344516694</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="23">
         <v>1.4855650078700899</v>
       </c>
-      <c r="K51" s="28">
+      <c r="K51" s="23">
         <v>1.9596012266440399</v>
       </c>
-      <c r="L51" s="28">
+      <c r="L51" s="23">
         <v>3.79980466554853</v>
       </c>
-      <c r="M51" s="29">
+      <c r="M51" s="23">
         <v>1.21626713955917</v>
       </c>
-      <c r="N51" s="30">
+      <c r="N51" s="23">
         <v>0.70165584658713998</v>
       </c>
-      <c r="O51" s="31">
+      <c r="O51" s="24">
         <v>14.0305687158586</v>
       </c>
-      <c r="P51" s="30">
+      <c r="P51" s="25">
         <v>4</v>
       </c>
-      <c r="Q51" s="31">
+      <c r="Q51" s="24">
         <v>9.1961999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="27">
         <v>3.9009518571895501</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="28">
         <v>0.48010058638015002</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="28">
         <v>0.77726212139269002</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="28">
         <v>2.64358894508785</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="27">
         <v>10.4003891006471</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H52" s="28">
         <v>-7.4905732042643001</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="28">
         <v>2.1828903829203599</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="28">
         <v>0</v>
       </c>
-      <c r="K52" s="34">
+      <c r="K52" s="28">
         <v>0</v>
       </c>
-      <c r="L52" s="34">
+      <c r="L52" s="28">
         <v>4.8582399480748997</v>
       </c>
-      <c r="M52" s="35">
+      <c r="M52" s="28">
         <v>1.2348777582749899</v>
       </c>
-      <c r="N52" s="36">
+      <c r="N52" s="28">
         <v>1.69727200730671</v>
       </c>
-      <c r="O52" s="37">
+      <c r="O52" s="29">
         <v>-13.098072535001</v>
       </c>
-      <c r="P52" s="36">
+      <c r="P52" s="30">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q52" s="37">
+      <c r="Q52" s="29">
         <v>0.96240000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="27">
         <v>9.0083655733735792</v>
       </c>
-      <c r="D53" s="34">
+      <c r="D53" s="28">
         <v>2.4732466518455398</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="28">
         <v>1.1987534914232301</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="28">
         <v>5.3363652129902199</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="27">
         <v>4.2825102664520402</v>
       </c>
-      <c r="H53" s="33">
+      <c r="H53" s="28">
         <v>8.47303676863425</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="28">
         <v>1.1093973392827099</v>
       </c>
-      <c r="J53" s="34">
+      <c r="J53" s="28">
         <v>0</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="28">
         <v>0</v>
       </c>
-      <c r="L53" s="34">
+      <c r="L53" s="28">
         <v>10.4857144746109</v>
       </c>
-      <c r="M53" s="35">
+      <c r="M53" s="28">
         <v>0.89649892084286997</v>
       </c>
-      <c r="N53" s="36">
+      <c r="N53" s="28">
         <v>1.73229401546051</v>
       </c>
-      <c r="O53" s="37">
+      <c r="O53" s="29">
         <v>-3.5320733029973002</v>
       </c>
-      <c r="P53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="37" t="s">
+      <c r="P53" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="27">
         <v>16.9671798882218</v>
       </c>
-      <c r="D54" s="34">
+      <c r="D54" s="28">
         <v>2.3305765757265999</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="28">
         <v>0.92955482409099999</v>
       </c>
-      <c r="F54" s="34">
+      <c r="F54" s="28">
         <v>13.707048453227401</v>
       </c>
-      <c r="G54" s="35">
+      <c r="G54" s="27">
         <v>21.982937936542001</v>
       </c>
-      <c r="H54" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="34">
+      <c r="H54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="28">
         <v>3.4801787056754798</v>
       </c>
-      <c r="J54" s="34">
+      <c r="J54" s="28">
         <v>0</v>
       </c>
-      <c r="K54" s="34">
+      <c r="K54" s="28">
         <v>0</v>
       </c>
-      <c r="L54" s="34">
+      <c r="L54" s="28">
         <v>17.482138475421099</v>
       </c>
-      <c r="M54" s="35">
+      <c r="M54" s="28">
         <v>1.64288306876503</v>
       </c>
-      <c r="N54" s="36">
+      <c r="N54" s="28">
         <v>0.91885487541155997</v>
       </c>
-      <c r="O54" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="36">
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="30">
         <v>2.6</v>
       </c>
-      <c r="Q54" s="37">
+      <c r="Q54" s="29">
         <v>5.7119999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="27">
         <v>3.4709581958921398</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D55" s="28">
         <v>0.21630929770287</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="28">
         <v>1.38858337447639</v>
       </c>
-      <c r="F55" s="34">
+      <c r="F55" s="28">
         <v>1.86606564160513</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="27">
         <v>4.6163043833086501</v>
       </c>
-      <c r="H55" s="33">
+      <c r="H55" s="28">
         <v>10.393395993230699</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="28">
         <v>4.11621588743286</v>
       </c>
-      <c r="J55" s="34">
+      <c r="J55" s="28">
         <v>0</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="28">
         <v>5.22924038554339</v>
       </c>
-      <c r="L55" s="34">
+      <c r="L55" s="28">
         <v>2.2889606462688898</v>
       </c>
-      <c r="M55" s="35">
+      <c r="M55" s="28">
         <v>1.43797696213278</v>
       </c>
-      <c r="N55" s="36">
+      <c r="N55" s="28">
         <v>2.3485468506044902</v>
       </c>
-      <c r="O55" s="37">
+      <c r="O55" s="29">
         <v>3.20488703611402</v>
       </c>
-      <c r="P55" s="36">
+      <c r="P55" s="30">
         <v>3.8</v>
       </c>
-      <c r="Q55" s="37">
+      <c r="Q55" s="29">
         <v>1.85</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="27">
         <v>6.1612099616444702</v>
       </c>
-      <c r="D56" s="34">
+      <c r="D56" s="28">
         <v>0.96977520085534996</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="28">
         <v>2.3103171851318498</v>
       </c>
-      <c r="F56" s="34">
+      <c r="F56" s="28">
         <v>2.8811180512257999</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="27">
         <v>3.4762127944800798</v>
       </c>
-      <c r="H56" s="33">
+      <c r="H56" s="28">
         <v>9.5680102051712002</v>
       </c>
-      <c r="I56" s="34">
+      <c r="I56" s="28">
         <v>3.1312436079964798</v>
       </c>
-      <c r="J56" s="34">
+      <c r="J56" s="28">
         <v>0.17620124488683001</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="28">
         <v>0.15377635979630999</v>
       </c>
-      <c r="L56" s="34">
+      <c r="L56" s="28">
         <v>0</v>
       </c>
-      <c r="M56" s="35">
+      <c r="M56" s="28">
         <v>0.67112159433362994</v>
       </c>
-      <c r="N56" s="36">
+      <c r="N56" s="28">
         <v>2.4847309442128198</v>
       </c>
-      <c r="O56" s="37">
+      <c r="O56" s="29">
         <v>9.2134236699381002</v>
       </c>
-      <c r="P56" s="36">
+      <c r="P56" s="30">
         <v>3.5</v>
       </c>
-      <c r="Q56" s="37">
+      <c r="Q56" s="29">
         <v>3.57</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="27">
         <v>3.3843796994095898</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D57" s="28">
         <v>0.32433808017692001</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="28">
         <v>0.50653918846319002</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="28">
         <v>2.5535023487819499</v>
       </c>
-      <c r="G57" s="35">
+      <c r="G57" s="27">
         <v>10.814501469355699</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="28">
         <v>17.9673426356314</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="28">
         <v>0.82428104889547005</v>
       </c>
-      <c r="J57" s="34">
+      <c r="J57" s="28">
         <v>1.5395109976858199</v>
       </c>
-      <c r="K57" s="34">
+      <c r="K57" s="28">
         <v>4.2262085237500004E-3</v>
       </c>
-      <c r="L57" s="34">
+      <c r="L57" s="28">
         <v>0</v>
       </c>
-      <c r="M57" s="35">
+      <c r="M57" s="28">
         <v>1.10696628563389</v>
       </c>
-      <c r="N57" s="36">
+      <c r="N57" s="28">
         <v>2.1827394008407102</v>
       </c>
-      <c r="O57" s="37">
+      <c r="O57" s="29">
         <v>13.9581807918427</v>
       </c>
-      <c r="P57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="37">
+      <c r="P57" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="29">
         <v>4.4092000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="27">
         <v>5.1437511353545702</v>
       </c>
-      <c r="D58" s="34">
+      <c r="D58" s="28">
         <v>0.86461010661031001</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="28">
         <v>1.71913204487976</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="28">
         <v>2.5600091178512399</v>
       </c>
-      <c r="G58" s="35">
+      <c r="G58" s="27">
         <v>9.7340277166393694</v>
       </c>
-      <c r="H58" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="34">
+      <c r="H58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="28">
         <v>4.8599800531955299</v>
       </c>
-      <c r="J58" s="34">
+      <c r="J58" s="28">
         <v>1.43551393695E-3</v>
       </c>
-      <c r="K58" s="34">
+      <c r="K58" s="28">
         <v>0.93455480631601995</v>
       </c>
-      <c r="L58" s="34">
+      <c r="L58" s="28">
         <v>0</v>
       </c>
-      <c r="M58" s="35">
+      <c r="M58" s="28">
         <v>1.8454466456004901</v>
       </c>
-      <c r="N58" s="36">
+      <c r="N58" s="28">
         <v>1.09254272397432</v>
       </c>
-      <c r="O58" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="36">
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="30">
         <v>4.8</v>
       </c>
-      <c r="Q58" s="37">
+      <c r="Q58" s="29">
         <v>4.0350000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="27">
         <v>9.3353581818314897</v>
       </c>
-      <c r="D59" s="34">
+      <c r="D59" s="28">
         <v>2.9787839777583498</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59" s="28">
         <v>1.3654628350361899</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="28">
         <v>4.9911111438535798</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="27">
         <v>5.5053763562312898</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="28">
         <v>-5.1878159453667001</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="28">
         <v>6.3552996040828704</v>
       </c>
-      <c r="J59" s="34">
+      <c r="J59" s="28">
         <v>0</v>
       </c>
-      <c r="K59" s="34">
+      <c r="K59" s="28">
         <v>3.0922310142900001E-3</v>
       </c>
-      <c r="L59" s="34">
+      <c r="L59" s="28">
         <v>7.3478392058623001</v>
       </c>
-      <c r="M59" s="35">
+      <c r="M59" s="28">
         <v>0.91736421774766996</v>
       </c>
-      <c r="N59" s="36">
+      <c r="N59" s="28">
         <v>2.3793280259486398</v>
       </c>
-      <c r="O59" s="37">
+      <c r="O59" s="29">
         <v>-9.4801400218567995</v>
       </c>
-      <c r="P59" s="36">
+      <c r="P59" s="30">
         <v>7.7</v>
       </c>
-      <c r="Q59" s="37">
+      <c r="Q59" s="29">
         <v>2.5640999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="55">
         <v>6.1803451547171404</v>
       </c>
-      <c r="D60" s="68">
+      <c r="D60" s="56">
         <v>0.93252413559564995</v>
       </c>
-      <c r="E60" s="68">
+      <c r="E60" s="56">
         <v>0.91114589121040002</v>
       </c>
-      <c r="F60" s="68">
+      <c r="F60" s="56">
         <v>4.3366747730951198</v>
       </c>
-      <c r="G60" s="69">
+      <c r="G60" s="55">
         <v>6.0814549705816203</v>
       </c>
-      <c r="H60" s="67">
+      <c r="H60" s="56">
         <v>16.800416712786401</v>
       </c>
-      <c r="I60" s="68">
+      <c r="I60" s="56">
         <v>3.6637309018477699</v>
       </c>
-      <c r="J60" s="68">
+      <c r="J60" s="56">
         <v>0</v>
       </c>
-      <c r="K60" s="68">
+      <c r="K60" s="56">
         <v>1.21145537403365</v>
       </c>
-      <c r="L60" s="68">
+      <c r="L60" s="56">
         <v>3.20185933782808</v>
       </c>
-      <c r="M60" s="69">
+      <c r="M60" s="56">
         <v>1.29542467172604</v>
       </c>
-      <c r="N60" s="70">
+      <c r="N60" s="56">
         <v>2.1836453093618</v>
       </c>
-      <c r="O60" s="71">
+      <c r="O60" s="57">
         <v>12.5717629216846</v>
       </c>
-      <c r="P60" s="70">
+      <c r="P60" s="58">
         <v>5.4</v>
       </c>
-      <c r="Q60" s="71">
+      <c r="Q60" s="57">
         <v>2.4411999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="36"/>
+      <c r="B61" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="38">
         <v>3.8185738134141198</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="39">
         <v>0.45073351596935002</v>
       </c>
-      <c r="E61" s="64">
+      <c r="E61" s="53">
         <v>0.93681124358496004</v>
       </c>
-      <c r="F61" s="47">
+      <c r="F61" s="39">
         <v>2.4310289875397899</v>
       </c>
-      <c r="G61" s="65">
+      <c r="G61" s="38">
         <v>9.5455211925307601</v>
       </c>
-      <c r="H61" s="46">
+      <c r="H61" s="39">
         <v>16.602998689289802</v>
       </c>
-      <c r="I61" s="47">
+      <c r="I61" s="39">
         <v>1.7343229290650899</v>
       </c>
-      <c r="J61" s="64">
+      <c r="J61" s="53">
         <v>1.22953707627302</v>
       </c>
-      <c r="K61" s="47">
+      <c r="K61" s="39">
         <v>0.44170273939813998</v>
       </c>
-      <c r="L61" s="47">
+      <c r="L61" s="39">
         <v>0.74540338080841995</v>
       </c>
-      <c r="M61" s="50">
+      <c r="M61" s="39">
         <v>1.11692672047111</v>
       </c>
-      <c r="N61" s="51">
+      <c r="N61" s="39">
         <v>1.9030083361744901</v>
       </c>
-      <c r="O61" s="52">
+      <c r="O61" s="41">
         <v>12.900743365229699</v>
       </c>
-      <c r="P61" s="51">
+      <c r="P61" s="42">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q61" s="52">
+      <c r="Q61" s="41">
         <v>3.3841657692307701</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72"/>
-      <c r="B62" s="73" t="s">
+      <c r="A62" s="59"/>
+      <c r="B62" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="74">
+      <c r="C62" s="61">
         <v>4.8410614968986403</v>
       </c>
-      <c r="D62" s="75">
+      <c r="D62" s="62">
         <v>0.44413564349931001</v>
       </c>
-      <c r="E62" s="75">
+      <c r="E62" s="62">
         <v>2.0242327182859601</v>
       </c>
-      <c r="F62" s="75">
+      <c r="F62" s="62">
         <v>2.3726930879049002</v>
       </c>
-      <c r="G62" s="76">
+      <c r="G62" s="61">
         <v>9.4723583080194</v>
       </c>
-      <c r="H62" s="74">
+      <c r="H62" s="62">
         <v>10.4070634131298</v>
       </c>
-      <c r="I62" s="75">
+      <c r="I62" s="62">
         <v>3.57201931793771</v>
       </c>
-      <c r="J62" s="75">
+      <c r="J62" s="62">
         <v>1.9318730235607799</v>
       </c>
-      <c r="K62" s="75">
+      <c r="K62" s="62">
         <v>0.45611624239163001</v>
       </c>
-      <c r="L62" s="75">
+      <c r="L62" s="62">
         <v>0.94617359221171005</v>
       </c>
-      <c r="M62" s="76">
+      <c r="M62" s="62">
         <v>2.3779746162634301</v>
       </c>
-      <c r="N62" s="77">
+      <c r="N62" s="62">
         <v>0.98784035259956005</v>
       </c>
-      <c r="O62" s="78">
+      <c r="O62" s="63">
         <v>7.2791049040404401</v>
       </c>
-      <c r="P62" s="77">
+      <c r="P62" s="64">
         <v>4.0842105263157897</v>
       </c>
-      <c r="Q62" s="78">
+      <c r="Q62" s="63">
         <v>2.53741924603175</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="72"/>
-      <c r="B63" s="79" t="s">
+      <c r="A63" s="59"/>
+      <c r="B63" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="80">
+      <c r="C63" s="66">
         <v>9.3463736829844297</v>
       </c>
-      <c r="D63" s="81">
+      <c r="D63" s="67">
         <v>1.3795413085989999E-2</v>
       </c>
-      <c r="E63" s="75">
+      <c r="E63" s="62">
         <v>5.8534520198025399</v>
       </c>
-      <c r="F63" s="81">
+      <c r="F63" s="67">
         <v>3.4777199742727198</v>
       </c>
-      <c r="G63" s="76">
+      <c r="G63" s="66">
         <v>18.355211007399902</v>
       </c>
-      <c r="H63" s="80">
+      <c r="H63" s="67">
         <v>9.4782263305820003</v>
       </c>
-      <c r="I63" s="81">
+      <c r="I63" s="67">
         <v>3.6316432304521502</v>
       </c>
-      <c r="J63" s="75">
+      <c r="J63" s="62">
         <v>0.55949096287682998</v>
       </c>
-      <c r="K63" s="81">
+      <c r="K63" s="67">
         <v>0.17531238259205001</v>
       </c>
-      <c r="L63" s="81">
+      <c r="L63" s="67">
         <v>3.8302168393259999E-2</v>
       </c>
-      <c r="M63" s="82">
+      <c r="M63" s="67">
         <v>1.94630231874274</v>
       </c>
-      <c r="N63" s="83">
+      <c r="N63" s="67">
         <v>0.32734190669381003</v>
       </c>
-      <c r="O63" s="84">
+      <c r="O63" s="68">
         <v>10.0631198217354</v>
       </c>
-      <c r="P63" s="83">
+      <c r="P63" s="69">
         <v>4.5434343434343401</v>
       </c>
-      <c r="Q63" s="84">
+      <c r="Q63" s="68">
         <v>1.6448352511551201</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="85"/>
-      <c r="B64" s="86" t="s">
+      <c r="A64" s="70"/>
+      <c r="B64" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="87">
+      <c r="C64" s="72">
         <v>8.4935527812274696</v>
       </c>
-      <c r="D64" s="88">
+      <c r="D64" s="73">
         <v>2.4432981696769999E-2</v>
       </c>
-      <c r="E64" s="81">
+      <c r="E64" s="67">
         <v>4.5358366698362298</v>
       </c>
-      <c r="F64" s="88">
+      <c r="F64" s="73">
         <v>3.9351159170683299</v>
       </c>
-      <c r="G64" s="82">
+      <c r="G64" s="72">
         <v>15.835116038119001</v>
       </c>
-      <c r="H64" s="87">
+      <c r="H64" s="73">
         <v>2.6665937811370202</v>
       </c>
-      <c r="I64" s="88">
+      <c r="I64" s="73">
         <v>4.7115604608615804</v>
       </c>
-      <c r="J64" s="81">
+      <c r="J64" s="67">
         <v>0.78832445087425995</v>
       </c>
-      <c r="K64" s="88">
+      <c r="K64" s="73">
         <v>0.43950276462346</v>
       </c>
-      <c r="L64" s="88">
+      <c r="L64" s="73">
         <v>2.9522083805979999E-2</v>
       </c>
-      <c r="M64" s="89">
+      <c r="M64" s="73">
         <v>1.33234846480628</v>
       </c>
-      <c r="N64" s="90">
+      <c r="N64" s="73">
         <v>0.19818048393877999</v>
       </c>
-      <c r="O64" s="91">
+      <c r="O64" s="74">
         <v>4.5902759939498301</v>
       </c>
-      <c r="P64" s="90">
+      <c r="P64" s="75">
         <v>4.6583333333333297</v>
       </c>
-      <c r="Q64" s="91">
+      <c r="Q64" s="74">
         <v>2.66815236666667</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
-      <c r="B65" s="79" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="92">
+      <c r="C65" s="76">
         <v>5.04297836965846</v>
       </c>
-      <c r="D65" s="93">
+      <c r="D65" s="77">
         <v>2.389412147443E-2</v>
       </c>
-      <c r="E65" s="93">
+      <c r="E65" s="77">
         <v>2.5332645300401002</v>
       </c>
-      <c r="F65" s="93">
+      <c r="F65" s="77">
         <v>2.4757193321331301</v>
       </c>
-      <c r="G65" s="94">
+      <c r="G65" s="76">
         <v>20.124617154411901</v>
       </c>
-      <c r="H65" s="92">
+      <c r="H65" s="77">
         <v>16.179272622215201</v>
       </c>
-      <c r="I65" s="93">
+      <c r="I65" s="77">
         <v>2.34506846548169</v>
       </c>
-      <c r="J65" s="93">
+      <c r="J65" s="77">
         <v>0.50529806267917998</v>
       </c>
-      <c r="K65" s="93">
+      <c r="K65" s="77">
         <v>0.21407401468966999</v>
       </c>
-      <c r="L65" s="93">
+      <c r="L65" s="77">
         <v>8.4598972902449998E-2</v>
       </c>
-      <c r="M65" s="94">
+      <c r="M65" s="77">
         <v>2.9820276740414799</v>
       </c>
-      <c r="N65" s="95">
+      <c r="N65" s="77">
         <v>0.69554762407820003</v>
       </c>
-      <c r="O65" s="96">
+      <c r="O65" s="78">
         <v>14.042794739305901</v>
       </c>
-      <c r="P65" s="95">
+      <c r="P65" s="79">
         <v>4.03684210526316</v>
       </c>
-      <c r="Q65" s="96">
+      <c r="Q65" s="78">
         <v>2.4883996825396801</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="85"/>
-      <c r="B66" s="97" t="s">
+      <c r="A66" s="70"/>
+      <c r="B66" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="98">
+      <c r="C66" s="81">
         <v>9.1144301217626502</v>
       </c>
-      <c r="D66" s="99">
+      <c r="D66" s="82">
         <v>3.9289313132650001E-2</v>
       </c>
-      <c r="E66" s="99">
+      <c r="E66" s="82">
         <v>5.6563152344237402</v>
       </c>
-      <c r="F66" s="99">
+      <c r="F66" s="82">
         <v>3.4208307153970399</v>
       </c>
-      <c r="G66" s="100">
+      <c r="G66" s="81">
         <v>17.888667319796099</v>
       </c>
-      <c r="H66" s="98">
+      <c r="H66" s="82">
         <v>9.5273066935848192</v>
       </c>
-      <c r="I66" s="99">
+      <c r="I66" s="82">
         <v>3.6284926636575601</v>
       </c>
-      <c r="J66" s="99">
+      <c r="J66" s="82">
         <v>0.63200853456137995</v>
       </c>
-      <c r="K66" s="99">
+      <c r="K66" s="82">
         <v>0.19015024342955</v>
       </c>
-      <c r="L66" s="99">
+      <c r="L66" s="82">
         <v>8.6274692184700005E-2</v>
       </c>
-      <c r="M66" s="100">
+      <c r="M66" s="82">
         <v>1.9691121671635901</v>
       </c>
-      <c r="N66" s="101">
+      <c r="N66" s="82">
         <v>0.36224307945806999</v>
       </c>
-      <c r="O66" s="102">
+      <c r="O66" s="83">
         <v>9.9160106404450694</v>
       </c>
-      <c r="P66" s="101">
+      <c r="P66" s="84">
         <v>4.41605839416059</v>
       </c>
-      <c r="Q66" s="102">
+      <c r="Q66" s="83">
         <v>1.90699278811189</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="85"/>
-      <c r="B67" s="79" t="s">
+      <c r="A67" s="70"/>
+      <c r="B67" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="92">
+      <c r="C67" s="76">
         <v>4.3675241517090599</v>
       </c>
-      <c r="D67" s="93">
+      <c r="D67" s="77">
         <v>0.56371396553927</v>
       </c>
-      <c r="E67" s="93">
+      <c r="E67" s="77">
         <v>1.55713717605355</v>
       </c>
-      <c r="F67" s="93">
+      <c r="F67" s="77">
         <v>2.24667287213977</v>
       </c>
-      <c r="G67" s="94">
+      <c r="G67" s="76">
         <v>7.4777285020300903</v>
       </c>
-      <c r="H67" s="92">
+      <c r="H67" s="77">
         <v>6.4948641717522797</v>
       </c>
-      <c r="I67" s="93">
+      <c r="I67" s="77">
         <v>3.6590155427725399</v>
       </c>
-      <c r="J67" s="93">
+      <c r="J67" s="77">
         <v>1.1014533656355201</v>
       </c>
-      <c r="K67" s="93">
+      <c r="K67" s="77">
         <v>0.47896484071217998</v>
       </c>
-      <c r="L67" s="93">
+      <c r="L67" s="77">
         <v>1.6397610623555701</v>
       </c>
-      <c r="M67" s="94">
+      <c r="M67" s="77">
         <v>2.1738095205580499</v>
       </c>
-      <c r="N67" s="95">
+      <c r="N67" s="77">
         <v>0.80547249933630005</v>
       </c>
-      <c r="O67" s="96">
+      <c r="O67" s="78">
         <v>3.9544184259272002</v>
       </c>
-      <c r="P67" s="95">
+      <c r="P67" s="79">
         <v>4.10666666666667</v>
       </c>
-      <c r="Q67" s="96">
+      <c r="Q67" s="78">
         <v>2.75237088888889</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="85"/>
-      <c r="B68" s="79" t="s">
+      <c r="A68" s="70"/>
+      <c r="B68" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="92">
+      <c r="C68" s="76">
         <v>4.1799522650218197</v>
       </c>
-      <c r="D68" s="93">
+      <c r="D68" s="77">
         <v>0.25376121678160002</v>
       </c>
-      <c r="E68" s="93">
+      <c r="E68" s="77">
         <v>1.32906750363017</v>
       </c>
-      <c r="F68" s="93">
+      <c r="F68" s="77">
         <v>2.5971234177393598</v>
       </c>
-      <c r="G68" s="94">
+      <c r="G68" s="76">
         <v>8.0819070914438402</v>
       </c>
-      <c r="H68" s="92">
+      <c r="H68" s="77">
         <v>10.5109175150941</v>
       </c>
-      <c r="I68" s="93">
+      <c r="I68" s="77">
         <v>3.0322436549402001</v>
       </c>
-      <c r="J68" s="93">
+      <c r="J68" s="77">
         <v>1.3357597849042699</v>
       </c>
-      <c r="K68" s="93">
+      <c r="K68" s="77">
         <v>0.31542814399348001</v>
       </c>
-      <c r="L68" s="93">
+      <c r="L68" s="77">
         <v>0.38193742201806002</v>
       </c>
-      <c r="M68" s="94">
+      <c r="M68" s="77">
         <v>2.04857527332531</v>
       </c>
-      <c r="N68" s="95">
+      <c r="N68" s="77">
         <v>1.2107069973509601</v>
       </c>
-      <c r="O68" s="96">
+      <c r="O68" s="78">
         <v>8.2507535484422192</v>
       </c>
-      <c r="P68" s="95">
+      <c r="P68" s="79">
         <v>3.9125000000000001</v>
       </c>
-      <c r="Q68" s="96">
+      <c r="Q68" s="78">
         <v>2.8981597368421101</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
-      <c r="B69" s="79" t="s">
+      <c r="A69" s="70"/>
+      <c r="B69" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="92">
+      <c r="C69" s="76">
         <v>4.2656260536295498</v>
       </c>
-      <c r="D69" s="93">
+      <c r="D69" s="77">
         <v>1.34326666180662</v>
       </c>
-      <c r="E69" s="93">
+      <c r="E69" s="77">
         <v>1.44229302683889</v>
       </c>
-      <c r="F69" s="93">
+      <c r="F69" s="77">
         <v>1.4800664675463</v>
       </c>
-      <c r="G69" s="94">
+      <c r="G69" s="76">
         <v>9.1873595714658105</v>
       </c>
-      <c r="H69" s="92">
+      <c r="H69" s="77">
         <v>11.4336832176117</v>
       </c>
-      <c r="I69" s="93">
+      <c r="I69" s="77">
         <v>3.4145382270691398</v>
       </c>
-      <c r="J69" s="93">
+      <c r="J69" s="77">
         <v>6.8206796348949994E-2</v>
       </c>
-      <c r="K69" s="93">
+      <c r="K69" s="77">
         <v>0.94515794587987001</v>
       </c>
-      <c r="L69" s="93">
+      <c r="L69" s="77">
         <v>3.4250625820238598</v>
       </c>
-      <c r="M69" s="94">
+      <c r="M69" s="77">
         <v>0.74984025199394</v>
       </c>
-      <c r="N69" s="95">
+      <c r="N69" s="77">
         <v>1.1492963376504699</v>
       </c>
-      <c r="O69" s="96">
+      <c r="O69" s="78">
         <v>8.51065753078373</v>
       </c>
-      <c r="P69" s="95">
+      <c r="P69" s="79">
         <v>3.1857142857142899</v>
       </c>
-      <c r="Q69" s="96">
+      <c r="Q69" s="78">
         <v>2.7345855555555598</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
-      <c r="B70" s="79" t="s">
+      <c r="A70" s="70"/>
+      <c r="B70" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="92">
+      <c r="C70" s="76">
         <v>3.9630208755129002</v>
       </c>
-      <c r="D70" s="93">
+      <c r="D70" s="77">
         <v>0.76767195148972001</v>
       </c>
-      <c r="E70" s="93">
+      <c r="E70" s="77">
         <v>1.2971340668990401</v>
       </c>
-      <c r="F70" s="93">
+      <c r="F70" s="77">
         <v>1.89821483672553</v>
       </c>
-      <c r="G70" s="94">
+      <c r="G70" s="76">
         <v>10.183741146149501</v>
       </c>
-      <c r="H70" s="92">
+      <c r="H70" s="77">
         <v>13.516907891985101</v>
       </c>
-      <c r="I70" s="93">
+      <c r="I70" s="77">
         <v>2.6414210184249698</v>
       </c>
-      <c r="J70" s="93">
+      <c r="J70" s="77">
         <v>6.9867926019312598</v>
       </c>
-      <c r="K70" s="93">
+      <c r="K70" s="77">
         <v>0.99196816651894004</v>
       </c>
-      <c r="L70" s="93">
+      <c r="L70" s="77">
         <v>3.49271976176182</v>
       </c>
-      <c r="M70" s="94">
+      <c r="M70" s="77">
         <v>1.2129498075640199</v>
       </c>
-      <c r="N70" s="95">
+      <c r="N70" s="77">
         <v>0.97263644195889998</v>
       </c>
-      <c r="O70" s="96">
+      <c r="O70" s="78">
         <v>2.5012621306751899</v>
       </c>
-      <c r="P70" s="95">
+      <c r="P70" s="79">
         <v>3.4142857142857101</v>
       </c>
-      <c r="Q70" s="96">
+      <c r="Q70" s="78">
         <v>1.8101674999999999</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
-      <c r="B71" s="79" t="s">
+      <c r="A71" s="70"/>
+      <c r="B71" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="92">
+      <c r="C71" s="76">
         <v>3.8185738134141198</v>
       </c>
-      <c r="D71" s="93">
+      <c r="D71" s="77">
         <v>0.45073351596935002</v>
       </c>
-      <c r="E71" s="93">
+      <c r="E71" s="77">
         <v>0.93681124358496004</v>
       </c>
-      <c r="F71" s="93">
+      <c r="F71" s="77">
         <v>2.4310289875397899</v>
       </c>
-      <c r="G71" s="94">
+      <c r="G71" s="76">
         <v>9.5455211925307601</v>
       </c>
-      <c r="H71" s="92">
+      <c r="H71" s="77">
         <v>16.602998689289802</v>
       </c>
-      <c r="I71" s="93">
+      <c r="I71" s="77">
         <v>1.7343229290650899</v>
       </c>
-      <c r="J71" s="93">
+      <c r="J71" s="77">
         <v>1.22953707627302</v>
       </c>
-      <c r="K71" s="93">
+      <c r="K71" s="77">
         <v>0.44170273939813998</v>
       </c>
-      <c r="L71" s="93">
+      <c r="L71" s="77">
         <v>0.74540338080841995</v>
       </c>
-      <c r="M71" s="94">
+      <c r="M71" s="77">
         <v>1.11692672047111</v>
       </c>
-      <c r="N71" s="95">
+      <c r="N71" s="77">
         <v>1.9030083361744901</v>
       </c>
-      <c r="O71" s="96">
+      <c r="O71" s="78">
         <v>12.900743365229699</v>
       </c>
-      <c r="P71" s="95">
+      <c r="P71" s="79">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q71" s="96">
+      <c r="Q71" s="78">
         <v>3.3841657692307701</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
-      <c r="B72" s="79" t="s">
+      <c r="A72" s="70"/>
+      <c r="B72" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="92">
+      <c r="C72" s="76">
         <v>3.8053770260384598</v>
       </c>
-      <c r="D72" s="93">
+      <c r="D72" s="77">
         <v>0.93327560527824005</v>
       </c>
-      <c r="E72" s="93">
+      <c r="E72" s="77">
         <v>1.3488161993491301</v>
       </c>
-      <c r="F72" s="93">
+      <c r="F72" s="77">
         <v>1.52328519814324</v>
       </c>
-      <c r="G72" s="94">
+      <c r="G72" s="76">
         <v>8.5218370709742306</v>
       </c>
-      <c r="H72" s="92">
+      <c r="H72" s="77">
         <v>13.3027720448535</v>
       </c>
-      <c r="I72" s="93">
+      <c r="I72" s="77">
         <v>3.1958958421796702</v>
       </c>
-      <c r="J72" s="93">
+      <c r="J72" s="77">
         <v>4.070160340712E-2</v>
       </c>
-      <c r="K72" s="93">
+      <c r="K72" s="77">
         <v>0.55029386130310998</v>
       </c>
-      <c r="L72" s="93">
+      <c r="L72" s="77">
         <v>3.4056328899150898</v>
       </c>
-      <c r="M72" s="94">
+      <c r="M72" s="77">
         <v>1.2452899675359099</v>
       </c>
-      <c r="N72" s="95">
+      <c r="N72" s="77">
         <v>1.0955848997361499</v>
       </c>
-      <c r="O72" s="96">
+      <c r="O72" s="78">
         <v>10.1611646651358</v>
       </c>
-      <c r="P72" s="95">
+      <c r="P72" s="79">
         <v>3.44</v>
       </c>
-      <c r="Q72" s="96">
+      <c r="Q72" s="78">
         <v>2.1787526666666701</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="85"/>
-      <c r="B73" s="79" t="s">
+      <c r="A73" s="70"/>
+      <c r="B73" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="92">
+      <c r="C73" s="76">
         <v>6.4795025634972401</v>
       </c>
-      <c r="D73" s="93">
+      <c r="D73" s="77">
         <v>0.68504338411621002</v>
       </c>
-      <c r="E73" s="93">
+      <c r="E73" s="77">
         <v>3.5262051985952798</v>
       </c>
-      <c r="F73" s="93">
+      <c r="F73" s="77">
         <v>2.26825406098907</v>
       </c>
-      <c r="G73" s="94">
+      <c r="G73" s="76">
         <v>12.5359536792244</v>
       </c>
-      <c r="H73" s="92">
+      <c r="H73" s="77">
         <v>7.3747208161201998</v>
       </c>
-      <c r="I73" s="93">
+      <c r="I73" s="77">
         <v>4.8258416801534096</v>
       </c>
-      <c r="J73" s="93">
+      <c r="J73" s="77">
         <v>2.4032999255184899</v>
       </c>
-      <c r="K73" s="93">
+      <c r="K73" s="77">
         <v>1.1658170831960699</v>
       </c>
-      <c r="L73" s="93">
+      <c r="L73" s="77">
         <v>1.00482518916576</v>
       </c>
-      <c r="M73" s="94">
+      <c r="M73" s="77">
         <v>3.2307167107102801</v>
       </c>
-      <c r="N73" s="95">
+      <c r="N73" s="77">
         <v>0.66683347728036002</v>
       </c>
-      <c r="O73" s="96">
+      <c r="O73" s="78">
         <v>3.72907011040266</v>
       </c>
-      <c r="P73" s="95">
+      <c r="P73" s="79">
         <v>4.4833333333333298</v>
       </c>
-      <c r="Q73" s="96">
+      <c r="Q73" s="78">
         <v>2.22487307692308</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="85"/>
-      <c r="B74" s="79" t="s">
+      <c r="A74" s="70"/>
+      <c r="B74" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="92">
+      <c r="C74" s="76">
         <v>5.7087914406576301</v>
       </c>
-      <c r="D74" s="93">
+      <c r="D74" s="77">
         <v>4.620191130219E-2</v>
       </c>
-      <c r="E74" s="93">
+      <c r="E74" s="77">
         <v>3.1466238205271502</v>
       </c>
-      <c r="F74" s="93">
+      <c r="F74" s="77">
         <v>2.5159657467299898</v>
       </c>
-      <c r="G74" s="94">
+      <c r="G74" s="76">
         <v>9.0741050256886808</v>
       </c>
-      <c r="H74" s="92">
+      <c r="H74" s="77">
         <v>11.734806867639801</v>
       </c>
-      <c r="I74" s="93">
+      <c r="I74" s="77">
         <v>4.2363054526355599</v>
       </c>
-      <c r="J74" s="93">
+      <c r="J74" s="77">
         <v>3.4696587848489799</v>
       </c>
-      <c r="K74" s="93">
+      <c r="K74" s="77">
         <v>2.6886837842289998E-2</v>
       </c>
-      <c r="L74" s="93">
+      <c r="L74" s="77">
         <v>5.0221939039210003E-2</v>
       </c>
-      <c r="M74" s="94">
+      <c r="M74" s="77">
         <v>3.4487323171712299</v>
       </c>
-      <c r="N74" s="95">
+      <c r="N74" s="77">
         <v>0.43668441390439</v>
       </c>
-      <c r="O74" s="96">
+      <c r="O74" s="78">
         <v>8.5389280274692503</v>
       </c>
-      <c r="P74" s="95">
+      <c r="P74" s="79">
         <v>4.25</v>
       </c>
-      <c r="Q74" s="96">
+      <c r="Q74" s="78">
         <v>2.0256500000000002</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="85"/>
-      <c r="B75" s="79" t="s">
+      <c r="A75" s="70"/>
+      <c r="B75" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="80">
+      <c r="C75" s="66">
         <v>4.0435811044865302</v>
       </c>
-      <c r="D75" s="81">
+      <c r="D75" s="67">
         <v>0.81512879970888996</v>
       </c>
-      <c r="E75" s="99">
+      <c r="E75" s="82">
         <v>1.8358266835777499</v>
       </c>
-      <c r="F75" s="81">
+      <c r="F75" s="67">
         <v>1.39262564829212</v>
       </c>
-      <c r="G75" s="100">
+      <c r="G75" s="66">
         <v>9.61180054503048</v>
       </c>
-      <c r="H75" s="80">
+      <c r="H75" s="67">
         <v>16.8198678561841</v>
       </c>
-      <c r="I75" s="81">
+      <c r="I75" s="67">
         <v>3.3897388774270998</v>
       </c>
-      <c r="J75" s="99">
+      <c r="J75" s="82">
         <v>10.9446201140269</v>
       </c>
-      <c r="K75" s="81">
+      <c r="K75" s="67">
         <v>4.7877628119799998E-3</v>
       </c>
-      <c r="L75" s="81">
+      <c r="L75" s="67">
         <v>0.79218611662645</v>
       </c>
-      <c r="M75" s="82">
+      <c r="M75" s="67">
         <v>1.81404736620398</v>
       </c>
-      <c r="N75" s="83">
+      <c r="N75" s="67">
         <v>0.69285190929857998</v>
       </c>
-      <c r="O75" s="84">
+      <c r="O75" s="68">
         <v>5.9611134646433603</v>
       </c>
-      <c r="P75" s="83">
+      <c r="P75" s="69">
         <v>5.2666666666666702</v>
       </c>
-      <c r="Q75" s="84">
+      <c r="Q75" s="68">
         <v>1.0134375</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="85"/>
-      <c r="B76" s="103" t="s">
+      <c r="A76" s="70"/>
+      <c r="B76" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="104">
+      <c r="C76" s="86">
         <v>4.1393385169768004</v>
       </c>
-      <c r="D76" s="105">
+      <c r="D76" s="87">
         <v>3.0971682570159999E-2</v>
       </c>
-      <c r="E76" s="93">
+      <c r="E76" s="77">
         <v>2.18516091525135</v>
       </c>
-      <c r="F76" s="105">
+      <c r="F76" s="87">
         <v>1.9232059200293601</v>
       </c>
-      <c r="G76" s="94">
+      <c r="G76" s="86">
         <v>17.2545045986246</v>
       </c>
-      <c r="H76" s="104">
+      <c r="H76" s="87">
         <v>11.552770245824901</v>
       </c>
-      <c r="I76" s="105">
+      <c r="I76" s="87">
         <v>3.28993694733354</v>
       </c>
-      <c r="J76" s="93">
+      <c r="J76" s="77">
         <v>0.82045572872676997</v>
       </c>
-      <c r="K76" s="105">
+      <c r="K76" s="87">
         <v>0.15066730697316999</v>
       </c>
-      <c r="L76" s="105">
+      <c r="L76" s="87">
         <v>0.20665568057969999</v>
       </c>
-      <c r="M76" s="106">
+      <c r="M76" s="87">
         <v>2.4199759487049501</v>
       </c>
-      <c r="N76" s="107">
+      <c r="N76" s="87">
         <v>0.43071949265671999</v>
       </c>
-      <c r="O76" s="108">
+      <c r="O76" s="88">
         <v>10.8142330355172</v>
       </c>
-      <c r="P76" s="107">
+      <c r="P76" s="89">
         <v>3.4166666666666701</v>
       </c>
-      <c r="Q76" s="108">
+      <c r="Q76" s="88">
         <v>1.94366541666667</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="85"/>
-      <c r="B77" s="79" t="s">
+      <c r="A77" s="70"/>
+      <c r="B77" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="92">
+      <c r="C77" s="76">
         <v>9.6277661049439995</v>
       </c>
-      <c r="D77" s="93">
+      <c r="D77" s="77">
         <v>1.918855218772E-2</v>
       </c>
-      <c r="E77" s="93">
+      <c r="E77" s="77">
         <v>5.1376892751077801</v>
       </c>
-      <c r="F77" s="93">
+      <c r="F77" s="77">
         <v>4.4730847205283801</v>
       </c>
-      <c r="G77" s="94">
+      <c r="G77" s="76">
         <v>15.550993810204201</v>
       </c>
-      <c r="H77" s="92">
+      <c r="H77" s="77">
         <v>0.41567920133905001</v>
       </c>
-      <c r="I77" s="93">
+      <c r="I77" s="77">
         <v>5.1404444689249598</v>
       </c>
-      <c r="J77" s="93">
+      <c r="J77" s="77">
         <v>0.88851052842379996</v>
       </c>
-      <c r="K77" s="93">
+      <c r="K77" s="77">
         <v>0.53988337256902996</v>
       </c>
-      <c r="L77" s="93">
+      <c r="L77" s="77">
         <v>3.3558249926890001E-2</v>
       </c>
-      <c r="M77" s="94">
+      <c r="M77" s="77">
         <v>1.28587760456223</v>
       </c>
-      <c r="N77" s="95">
+      <c r="N77" s="77">
         <v>0.17525529923086999</v>
       </c>
-      <c r="O77" s="96">
+      <c r="O77" s="78">
         <v>2.63303861555119</v>
       </c>
-      <c r="P77" s="95">
+      <c r="P77" s="79">
         <v>4.8666666666666698</v>
       </c>
-      <c r="Q77" s="96">
+      <c r="Q77" s="78">
         <v>2.19974711111111</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="85"/>
-      <c r="B78" s="79" t="s">
+      <c r="A78" s="70"/>
+      <c r="B78" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="92">
+      <c r="C78" s="76">
         <v>10.502321615648601</v>
       </c>
-      <c r="D78" s="93">
+      <c r="D78" s="77">
         <v>9.4753921163800003E-3</v>
       </c>
-      <c r="E78" s="93">
+      <c r="E78" s="77">
         <v>8.0091276837014895</v>
       </c>
-      <c r="F78" s="93">
+      <c r="F78" s="77">
         <v>2.4902122725824398</v>
       </c>
-      <c r="G78" s="94">
+      <c r="G78" s="76">
         <v>18.5353773274601</v>
       </c>
-      <c r="H78" s="92">
+      <c r="H78" s="77">
         <v>5.8729519705887396</v>
       </c>
-      <c r="I78" s="93">
+      <c r="I78" s="77">
         <v>4.5235246660968302</v>
       </c>
-      <c r="J78" s="93">
+      <c r="J78" s="77">
         <v>2.9142063509549999E-2</v>
       </c>
-      <c r="K78" s="93">
+      <c r="K78" s="77">
         <v>1.874474433879E-2</v>
       </c>
-      <c r="L78" s="93">
+      <c r="L78" s="77">
         <v>1.3968326134850001E-2</v>
       </c>
-      <c r="M78" s="94">
+      <c r="M78" s="77">
         <v>0.75755016050103996</v>
       </c>
-      <c r="N78" s="95">
+      <c r="N78" s="77">
         <v>6.8972749914019998E-2</v>
       </c>
-      <c r="O78" s="96">
+      <c r="O78" s="78">
         <v>9.50809859228732</v>
       </c>
-      <c r="P78" s="95">
+      <c r="P78" s="79">
         <v>4.85769230769231</v>
       </c>
-      <c r="Q78" s="96">
+      <c r="Q78" s="78">
         <v>0.57603886296296003</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="85"/>
-      <c r="B79" s="97" t="s">
+      <c r="A79" s="70"/>
+      <c r="B79" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="98">
+      <c r="C79" s="81">
         <v>12.994212476235401</v>
       </c>
-      <c r="D79" s="99">
+      <c r="D79" s="82">
         <v>1.27646292266E-3</v>
       </c>
-      <c r="E79" s="99">
+      <c r="E79" s="82">
         <v>8.6238645591143808</v>
       </c>
-      <c r="F79" s="99">
+      <c r="F79" s="82">
         <v>4.3702653612837103</v>
       </c>
-      <c r="G79" s="100">
+      <c r="G79" s="81">
         <v>18.2431592432076</v>
       </c>
-      <c r="H79" s="98">
+      <c r="H79" s="82">
         <v>4.8951848868021601</v>
       </c>
-      <c r="I79" s="99">
+      <c r="I79" s="82">
         <v>4.3250298897446902</v>
       </c>
-      <c r="J79" s="99">
+      <c r="J79" s="82">
         <v>0.16964994383200999</v>
       </c>
-      <c r="K79" s="99">
+      <c r="K79" s="82">
         <v>9.4230203290580003E-2</v>
       </c>
-      <c r="L79" s="99">
+      <c r="L79" s="82">
         <v>7.5624454111299999E-3</v>
       </c>
-      <c r="M79" s="100">
+      <c r="M79" s="82">
         <v>0.96706556072058003</v>
       </c>
-      <c r="N79" s="101">
+      <c r="N79" s="82">
         <v>8.3354718084010002E-2</v>
       </c>
-      <c r="O79" s="102">
+      <c r="O79" s="83">
         <v>7.8983519052085303</v>
       </c>
-      <c r="P79" s="101">
+      <c r="P79" s="84">
         <v>5.2176470588235304</v>
       </c>
-      <c r="Q79" s="102">
+      <c r="Q79" s="83">
         <v>0.90424201842105001</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="85"/>
-      <c r="B80" s="79" t="s">
+      <c r="A80" s="70"/>
+      <c r="B80" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="92">
+      <c r="C80" s="76">
         <v>4.6909963156029804</v>
       </c>
-      <c r="D80" s="93">
+      <c r="D80" s="77">
         <v>0.13680286748439999</v>
       </c>
-      <c r="E80" s="93">
+      <c r="E80" s="77">
         <v>2.6162203700654301</v>
       </c>
-      <c r="F80" s="93">
+      <c r="F80" s="77">
         <v>1.9379730671219699</v>
       </c>
-      <c r="G80" s="94">
+      <c r="G80" s="76">
         <v>9.1843335893161395</v>
       </c>
-      <c r="H80" s="92">
+      <c r="H80" s="77">
         <v>13.9538663830432</v>
       </c>
-      <c r="I80" s="93">
+      <c r="I80" s="77">
         <v>3.4208176615501902</v>
       </c>
-      <c r="J80" s="93">
+      <c r="J80" s="77">
         <v>7.4521829736621301</v>
       </c>
-      <c r="K80" s="93">
+      <c r="K80" s="77">
         <v>7.8046596030199996E-3</v>
       </c>
-      <c r="L80" s="93">
+      <c r="L80" s="77">
         <v>0.27839872214119998</v>
       </c>
-      <c r="M80" s="94">
+      <c r="M80" s="77">
         <v>3.5166863040346201</v>
       </c>
-      <c r="N80" s="95">
+      <c r="N80" s="77">
         <v>0.45501619570585</v>
       </c>
-      <c r="O80" s="96">
+      <c r="O80" s="78">
         <v>5.66459518944656</v>
       </c>
-      <c r="P80" s="95">
+      <c r="P80" s="79">
         <v>2.92</v>
       </c>
-      <c r="Q80" s="96">
+      <c r="Q80" s="78">
         <v>1.53843666666667</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="85"/>
-      <c r="B81" s="79" t="s">
+      <c r="A81" s="70"/>
+      <c r="B81" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="92">
+      <c r="C81" s="76">
         <v>7.7741870088204097</v>
       </c>
-      <c r="D81" s="93">
+      <c r="D81" s="77">
         <v>5.1551634840600003E-3</v>
       </c>
-      <c r="E81" s="93">
+      <c r="E81" s="77">
         <v>5.0237839921339003</v>
       </c>
-      <c r="F81" s="93">
+      <c r="F81" s="77">
         <v>2.7461346725479099</v>
       </c>
-      <c r="G81" s="94">
+      <c r="G81" s="76">
         <v>13.8704643675112</v>
       </c>
-      <c r="H81" s="92">
+      <c r="H81" s="77">
         <v>12.838025088764301</v>
       </c>
-      <c r="I81" s="93">
+      <c r="I81" s="77">
         <v>4.8261310642253603</v>
       </c>
-      <c r="J81" s="93">
+      <c r="J81" s="77">
         <v>4.2599748898685901</v>
       </c>
-      <c r="K81" s="93">
+      <c r="K81" s="77">
         <v>0.60003267369143998</v>
       </c>
-      <c r="L81" s="93">
+      <c r="L81" s="77">
         <v>7.7735179953999998E-4</v>
       </c>
-      <c r="M81" s="94">
+      <c r="M81" s="77">
         <v>4.1404905009934803</v>
       </c>
-      <c r="N81" s="95">
+      <c r="N81" s="77">
         <v>0.22420659393692999</v>
       </c>
-      <c r="O81" s="96">
+      <c r="O81" s="78">
         <v>8.4386741426996394</v>
       </c>
-      <c r="P81" s="95">
+      <c r="P81" s="79">
         <v>3.8230769230769202</v>
       </c>
-      <c r="Q81" s="96">
+      <c r="Q81" s="78">
         <v>1.6475181666666701</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="85"/>
-      <c r="B82" s="79" t="s">
+      <c r="A82" s="70"/>
+      <c r="B82" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="92">
+      <c r="C82" s="76">
         <v>4.8646877806209998</v>
       </c>
-      <c r="D82" s="93">
+      <c r="D82" s="77">
         <v>0.49252215994913001</v>
       </c>
-      <c r="E82" s="93">
+      <c r="E82" s="77">
         <v>1.9310300972627801</v>
       </c>
-      <c r="F82" s="93">
+      <c r="F82" s="77">
         <v>2.4411354704891099</v>
       </c>
-      <c r="G82" s="94">
+      <c r="G82" s="76">
         <v>9.5226308528956807</v>
       </c>
-      <c r="H82" s="92">
+      <c r="H82" s="77">
         <v>9.8275097388332195</v>
       </c>
-      <c r="I82" s="93">
+      <c r="I82" s="77">
         <v>3.5967259273159198</v>
       </c>
-      <c r="J82" s="93">
+      <c r="J82" s="77">
         <v>1.0298449317901199</v>
       </c>
-      <c r="K82" s="93">
+      <c r="K82" s="77">
         <v>0.52937112213512005</v>
       </c>
-      <c r="L82" s="93">
+      <c r="L82" s="77">
         <v>1.05528914862553</v>
       </c>
-      <c r="M82" s="94">
+      <c r="M82" s="77">
         <v>2.1919071780069301</v>
       </c>
-      <c r="N82" s="95">
+      <c r="N82" s="77">
         <v>1.0749047315631599</v>
       </c>
-      <c r="O82" s="96">
+      <c r="O82" s="78">
         <v>7.5429185540282599</v>
       </c>
-      <c r="P82" s="95">
+      <c r="P82" s="79">
         <v>4.2606060606060598</v>
       </c>
-      <c r="Q82" s="96">
+      <c r="Q82" s="78">
         <v>2.7039163425925898</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="85"/>
-      <c r="B83" s="79" t="s">
+      <c r="A83" s="70"/>
+      <c r="B83" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="80">
+      <c r="C83" s="66">
         <v>9.4904768851106507</v>
       </c>
-      <c r="D83" s="81">
+      <c r="D83" s="67">
         <v>1.472392977028E-2</v>
       </c>
-      <c r="E83" s="99">
+      <c r="E83" s="82">
         <v>5.9294975819826004</v>
       </c>
-      <c r="F83" s="81">
+      <c r="F83" s="67">
         <v>3.5447754876792801</v>
       </c>
-      <c r="G83" s="100">
+      <c r="G83" s="66">
         <v>18.756056042329799</v>
       </c>
-      <c r="H83" s="80">
+      <c r="H83" s="67">
         <v>9.2400112434761592</v>
       </c>
-      <c r="I83" s="81">
+      <c r="I83" s="67">
         <v>3.5469521391550298</v>
       </c>
-      <c r="J83" s="99">
+      <c r="J83" s="82">
         <v>0.29712075428759999</v>
       </c>
-      <c r="K83" s="81">
+      <c r="K83" s="67">
         <v>0.14519903699553999</v>
       </c>
-      <c r="L83" s="81">
+      <c r="L83" s="67">
         <v>4.0962737700190002E-2</v>
       </c>
-      <c r="M83" s="82">
+      <c r="M83" s="67">
         <v>1.7907308793258601</v>
       </c>
-      <c r="N83" s="83">
+      <c r="N83" s="67">
         <v>0.33465436475464999</v>
       </c>
-      <c r="O83" s="84">
+      <c r="O83" s="68">
         <v>10.1782956095673</v>
       </c>
-      <c r="P83" s="83">
+      <c r="P83" s="69">
         <v>4.6523255813953499</v>
       </c>
-      <c r="Q83" s="84">
+      <c r="Q83" s="68">
         <v>1.64447350973783</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
-      <c r="B84" s="103" t="s">
+      <c r="A84" s="70"/>
+      <c r="B84" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="104">
+      <c r="C84" s="86">
         <v>4.5055273772559898</v>
       </c>
-      <c r="D84" s="105">
+      <c r="D84" s="87">
         <v>1.3796593686282299</v>
       </c>
-      <c r="E84" s="93">
+      <c r="E84" s="77">
         <v>1.21961129985353</v>
       </c>
-      <c r="F84" s="105">
+      <c r="F84" s="87">
         <v>1.9062567066320599</v>
       </c>
-      <c r="G84" s="94">
+      <c r="G84" s="86">
         <v>7.59989234054013</v>
       </c>
-      <c r="H84" s="104">
+      <c r="H84" s="87">
         <v>14.2395999409433</v>
       </c>
-      <c r="I84" s="105">
+      <c r="I84" s="87">
         <v>2.7054245919714499</v>
       </c>
-      <c r="J84" s="93">
+      <c r="J84" s="77">
         <v>8.5679809707139995E-2</v>
       </c>
-      <c r="K84" s="105">
+      <c r="K84" s="87">
         <v>1.3137901704209201</v>
       </c>
-      <c r="L84" s="105">
+      <c r="L84" s="87">
         <v>4.6139969049066103</v>
       </c>
-      <c r="M84" s="106">
+      <c r="M84" s="87">
         <v>1.23146125097388</v>
       </c>
-      <c r="N84" s="107">
+      <c r="N84" s="87">
         <v>1.2937535518880201</v>
       </c>
-      <c r="O84" s="108">
+      <c r="O84" s="88">
         <v>8.4063428450181803</v>
       </c>
-      <c r="P84" s="107">
+      <c r="P84" s="89">
         <v>3.78235294117647</v>
       </c>
-      <c r="Q84" s="108">
+      <c r="Q84" s="88">
         <v>2.4224708888888902</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
-      <c r="B85" s="109" t="s">
+      <c r="A85" s="70"/>
+      <c r="B85" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="92">
+      <c r="C85" s="76">
         <v>15.539704020377201</v>
       </c>
-      <c r="D85" s="93">
+      <c r="D85" s="77">
         <v>2.5068712576920502</v>
       </c>
-      <c r="E85" s="93">
+      <c r="E85" s="77">
         <v>1.1866774680058201</v>
       </c>
-      <c r="F85" s="93">
+      <c r="F85" s="77">
         <v>11.8461545262883</v>
       </c>
-      <c r="G85" s="94">
+      <c r="G85" s="76">
         <v>8.4279836365242708</v>
       </c>
-      <c r="H85" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="L85" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="N85" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="O85" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85" s="95">
+      <c r="H85" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="79">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q85" s="96" t="s">
+      <c r="Q85" s="78" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
-      <c r="B86" s="79" t="s">
+      <c r="A86" s="70"/>
+      <c r="B86" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="92">
+      <c r="C86" s="76">
         <v>4.2684292132267503</v>
       </c>
-      <c r="D86" s="93">
+      <c r="D86" s="77">
         <v>0.2985300214239</v>
       </c>
-      <c r="E86" s="93">
+      <c r="E86" s="77">
         <v>1.6236846273669501</v>
       </c>
-      <c r="F86" s="93">
+      <c r="F86" s="77">
         <v>2.3462144724741401</v>
       </c>
-      <c r="G86" s="94">
+      <c r="G86" s="76">
         <v>8.6713592641287907</v>
       </c>
-      <c r="H86" s="92">
+      <c r="H86" s="77">
         <v>12.603029541465199</v>
       </c>
-      <c r="I86" s="93">
+      <c r="I86" s="77">
         <v>3.2906322765896099</v>
       </c>
-      <c r="J86" s="93">
+      <c r="J86" s="77">
         <v>2.4830213735251299</v>
       </c>
-      <c r="K86" s="93">
+      <c r="K86" s="77">
         <v>0.2120952909945</v>
       </c>
-      <c r="L86" s="93">
+      <c r="L86" s="77">
         <v>0.42672027839853</v>
       </c>
-      <c r="M86" s="94">
+      <c r="M86" s="77">
         <v>2.1183574866998298</v>
       </c>
-      <c r="N86" s="95">
+      <c r="N86" s="77">
         <v>1.04689113317549</v>
       </c>
-      <c r="O86" s="96">
+      <c r="O86" s="78">
         <v>9.6065762552613592</v>
       </c>
-      <c r="P86" s="95">
+      <c r="P86" s="79">
         <v>4.18333333333333</v>
       </c>
-      <c r="Q86" s="96">
+      <c r="Q86" s="78">
         <v>2.6043628260869598</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="79" t="s">
+      <c r="A87" s="70"/>
+      <c r="B87" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="92">
+      <c r="C87" s="76">
         <v>4.7111411957906597</v>
       </c>
-      <c r="D87" s="93">
+      <c r="D87" s="77">
         <v>5.8541295294469997E-2</v>
       </c>
-      <c r="E87" s="93">
+      <c r="E87" s="77">
         <v>1.95505082196775</v>
       </c>
-      <c r="F87" s="93">
+      <c r="F87" s="77">
         <v>2.6718333002805599</v>
       </c>
-      <c r="G87" s="94">
+      <c r="G87" s="76">
         <v>11.3526657627323</v>
       </c>
-      <c r="H87" s="92">
+      <c r="H87" s="77">
         <v>16.900110896189499</v>
       </c>
-      <c r="I87" s="93">
+      <c r="I87" s="77">
         <v>2.9687311928937401</v>
       </c>
-      <c r="J87" s="93">
+      <c r="J87" s="77">
         <v>0.33201400382343998</v>
       </c>
-      <c r="K87" s="93">
+      <c r="K87" s="77">
         <v>0.39159702446192002</v>
       </c>
-      <c r="L87" s="93">
+      <c r="L87" s="77">
         <v>0.13805910047096001</v>
       </c>
-      <c r="M87" s="94">
+      <c r="M87" s="77">
         <v>3.24798901554052</v>
       </c>
-      <c r="N87" s="95">
+      <c r="N87" s="77">
         <v>1.10636783766849</v>
       </c>
-      <c r="O87" s="96">
+      <c r="O87" s="78">
         <v>14.652815107117901</v>
       </c>
-      <c r="P87" s="95">
+      <c r="P87" s="79">
         <v>4.4695652173913096</v>
       </c>
-      <c r="Q87" s="96">
+      <c r="Q87" s="78">
         <v>2.9771078260869599</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="85"/>
-      <c r="B88" s="79" t="s">
+      <c r="A88" s="70"/>
+      <c r="B88" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="92">
+      <c r="C88" s="76">
         <v>8.1070603516072595</v>
       </c>
-      <c r="D88" s="93">
+      <c r="D88" s="77">
         <v>0.13632555285221001</v>
       </c>
-      <c r="E88" s="93">
+      <c r="E88" s="77">
         <v>4.9396726424830604</v>
       </c>
-      <c r="F88" s="93">
+      <c r="F88" s="77">
         <v>3.0310622849009601</v>
       </c>
-      <c r="G88" s="94">
+      <c r="G88" s="76">
         <v>15.0057932365503</v>
       </c>
-      <c r="H88" s="92">
+      <c r="H88" s="77">
         <v>-3.5065979280468</v>
       </c>
-      <c r="I88" s="93">
+      <c r="I88" s="77">
         <v>5.6993169364653404</v>
       </c>
-      <c r="J88" s="93">
+      <c r="J88" s="77">
         <v>1.01550554685261</v>
       </c>
-      <c r="K88" s="93">
+      <c r="K88" s="77">
         <v>0.82489877247711996</v>
       </c>
-      <c r="L88" s="93">
+      <c r="L88" s="77">
         <v>4.1574909125200003E-2</v>
       </c>
-      <c r="M88" s="94">
+      <c r="M88" s="77">
         <v>4.6589424672886999</v>
       </c>
-      <c r="N88" s="95">
+      <c r="N88" s="77">
         <v>0.42762675417085999</v>
       </c>
-      <c r="O88" s="96">
+      <c r="O88" s="78">
         <v>-4.7758294414959002</v>
       </c>
-      <c r="P88" s="95">
+      <c r="P88" s="79">
         <v>5.6</v>
       </c>
-      <c r="Q88" s="96">
+      <c r="Q88" s="78">
         <v>2.5835499999999998</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
-      <c r="B89" s="79" t="s">
+      <c r="A89" s="70"/>
+      <c r="B89" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="92">
+      <c r="C89" s="76">
         <v>6.0382462541295396</v>
       </c>
-      <c r="D89" s="93">
+      <c r="D89" s="77">
         <v>5.9744086962400002E-3</v>
       </c>
-      <c r="E89" s="93">
+      <c r="E89" s="77">
         <v>3.47396587142046</v>
       </c>
-      <c r="F89" s="93">
+      <c r="F89" s="77">
         <v>2.5595371656036598</v>
       </c>
-      <c r="G89" s="94">
+      <c r="G89" s="76">
         <v>21.399133783504301</v>
       </c>
-      <c r="H89" s="92">
+      <c r="H89" s="77">
         <v>12.416434888280699</v>
       </c>
-      <c r="I89" s="93">
+      <c r="I89" s="77">
         <v>2.9239010375561398</v>
       </c>
-      <c r="J89" s="93">
+      <c r="J89" s="77">
         <v>0.89668802944751003</v>
       </c>
-      <c r="K89" s="93">
+      <c r="K89" s="77">
         <v>0.22045350437887001</v>
       </c>
-      <c r="L89" s="93">
+      <c r="L89" s="77">
         <v>4.2352326108310002E-2</v>
       </c>
-      <c r="M89" s="94">
+      <c r="M89" s="77">
         <v>2.7342165392500899</v>
       </c>
-      <c r="N89" s="95">
+      <c r="N89" s="77">
         <v>0.37760739215735001</v>
       </c>
-      <c r="O89" s="96">
+      <c r="O89" s="78">
         <v>11.0690181344947</v>
       </c>
-      <c r="P89" s="95">
+      <c r="P89" s="79">
         <v>4.3724137931034504</v>
       </c>
-      <c r="Q89" s="96">
+      <c r="Q89" s="78">
         <v>1.6696730208333299</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="85"/>
-      <c r="B90" s="97" t="s">
+      <c r="A90" s="70"/>
+      <c r="B90" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="98">
+      <c r="C90" s="81">
         <v>13.168344113758501</v>
       </c>
-      <c r="D90" s="99">
+      <c r="D90" s="82">
         <v>1.3620613375899999E-3</v>
       </c>
-      <c r="E90" s="99">
+      <c r="E90" s="82">
         <v>8.7782071552173893</v>
       </c>
-      <c r="F90" s="99">
+      <c r="F90" s="82">
         <v>4.3893664581424403</v>
       </c>
-      <c r="G90" s="100">
+      <c r="G90" s="81">
         <v>17.975784010022</v>
       </c>
-      <c r="H90" s="98">
+      <c r="H90" s="82">
         <v>5.0813488615204001</v>
       </c>
-      <c r="I90" s="99">
+      <c r="I90" s="82">
         <v>4.3897420196345998</v>
       </c>
-      <c r="J90" s="99">
+      <c r="J90" s="82">
         <v>0.34369038205717001</v>
       </c>
-      <c r="K90" s="99">
+      <c r="K90" s="82">
         <v>8.0397124805369993E-2</v>
       </c>
-      <c r="L90" s="99">
+      <c r="L90" s="82">
         <v>8.2845328948399997E-3</v>
       </c>
-      <c r="M90" s="100">
+      <c r="M90" s="82">
         <v>0.95148898158705997</v>
       </c>
-      <c r="N90" s="101">
+      <c r="N90" s="82">
         <v>7.7635322591280004E-2</v>
       </c>
-      <c r="O90" s="102">
+      <c r="O90" s="83">
         <v>8.0095945372193</v>
       </c>
-      <c r="P90" s="101">
+      <c r="P90" s="84">
         <v>4.6914893617021303</v>
       </c>
-      <c r="Q90" s="102">
+      <c r="Q90" s="83">
         <v>0.96142051521739003</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="85"/>
-      <c r="B91" s="79" t="s">
+      <c r="A91" s="70"/>
+      <c r="B91" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="92">
+      <c r="C91" s="76">
         <v>4.2207359918918304</v>
       </c>
-      <c r="D91" s="93">
+      <c r="D91" s="77">
         <v>1.1773647300707499</v>
       </c>
-      <c r="E91" s="93">
+      <c r="E91" s="77">
         <v>1.33457891451663</v>
       </c>
-      <c r="F91" s="93">
+      <c r="F91" s="77">
         <v>1.7087923361922901</v>
       </c>
-      <c r="G91" s="94">
+      <c r="G91" s="76">
         <v>8.4553256722872092</v>
       </c>
-      <c r="H91" s="92">
+      <c r="H91" s="77">
         <v>16.434070190640401</v>
       </c>
-      <c r="I91" s="93">
+      <c r="I91" s="77">
         <v>2.9317972891890101</v>
       </c>
-      <c r="J91" s="93">
+      <c r="J91" s="77">
         <v>1.99707046032612</v>
       </c>
-      <c r="K91" s="93">
+      <c r="K91" s="77">
         <v>1.1540723066835501</v>
       </c>
-      <c r="L91" s="93">
+      <c r="L91" s="77">
         <v>3.1158004331698801</v>
       </c>
-      <c r="M91" s="94">
+      <c r="M91" s="77">
         <v>1.3129841712296999</v>
       </c>
-      <c r="N91" s="95">
+      <c r="N91" s="77">
         <v>1.22444559350446</v>
       </c>
-      <c r="O91" s="96">
+      <c r="O91" s="78">
         <v>10.561494514915699</v>
       </c>
-      <c r="P91" s="95">
+      <c r="P91" s="79">
         <v>3.8037037037036998</v>
       </c>
-      <c r="Q91" s="96">
+      <c r="Q91" s="78">
         <v>2.3335285897435898</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
-      <c r="B92" s="79" t="s">
+      <c r="A92" s="70"/>
+      <c r="B92" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="92">
+      <c r="C92" s="76">
         <v>3.7170637378682598</v>
       </c>
-      <c r="D92" s="93">
+      <c r="D92" s="77">
         <v>0.33786018157268999</v>
       </c>
-      <c r="E92" s="93">
+      <c r="E92" s="77">
         <v>0.67052999946814995</v>
       </c>
-      <c r="F92" s="93">
+      <c r="F92" s="77">
         <v>2.7146201847610198</v>
       </c>
-      <c r="G92" s="94">
+      <c r="G92" s="76">
         <v>3.51224921728888</v>
       </c>
-      <c r="H92" s="92">
+      <c r="H92" s="77">
         <v>32.6958258514615</v>
       </c>
-      <c r="I92" s="93">
+      <c r="I92" s="77">
         <v>1.54923771838123</v>
       </c>
-      <c r="J92" s="93">
+      <c r="J92" s="77">
         <v>0.51159325142531997</v>
       </c>
-      <c r="K92" s="93">
+      <c r="K92" s="77">
         <v>0</v>
       </c>
-      <c r="L92" s="93">
+      <c r="L92" s="77">
         <v>0.12648437597518</v>
       </c>
-      <c r="M92" s="94">
+      <c r="M92" s="77">
         <v>1.2027311823003199</v>
       </c>
-      <c r="N92" s="95">
+      <c r="N92" s="77">
         <v>0.79516500019684999</v>
       </c>
-      <c r="O92" s="96">
+      <c r="O92" s="78">
         <v>31.609089759945199</v>
       </c>
-      <c r="P92" s="95">
+      <c r="P92" s="79">
         <v>3.45714285714286</v>
       </c>
-      <c r="Q92" s="96">
+      <c r="Q92" s="78">
         <v>3.4357600000000001</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
-      <c r="B93" s="79" t="s">
+      <c r="A93" s="70"/>
+      <c r="B93" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="92">
+      <c r="C93" s="76">
         <v>6.6667601269226102</v>
       </c>
-      <c r="D93" s="93">
+      <c r="D93" s="77">
         <v>0.45041036134862</v>
       </c>
-      <c r="E93" s="93">
+      <c r="E93" s="77">
         <v>3.1219992462241599</v>
       </c>
-      <c r="F93" s="93">
+      <c r="F93" s="77">
         <v>3.0943506027896199</v>
       </c>
-      <c r="G93" s="94">
+      <c r="G93" s="76">
         <v>10.7563289782989</v>
       </c>
-      <c r="H93" s="92">
+      <c r="H93" s="77">
         <v>-1.5218655374276</v>
       </c>
-      <c r="I93" s="93">
+      <c r="I93" s="77">
         <v>4.2411067932227899</v>
       </c>
-      <c r="J93" s="93">
+      <c r="J93" s="77">
         <v>3.0419996912249999E-2</v>
       </c>
-      <c r="K93" s="93">
+      <c r="K93" s="77">
         <v>0</v>
       </c>
-      <c r="L93" s="93">
+      <c r="L93" s="77">
         <v>1.3762921188958199</v>
       </c>
-      <c r="M93" s="94">
+      <c r="M93" s="77">
         <v>1.2352902401505801</v>
       </c>
-      <c r="N93" s="95">
+      <c r="N93" s="77">
         <v>0.44988112319722001</v>
       </c>
-      <c r="O93" s="96">
+      <c r="O93" s="78">
         <v>-0.37264222336070002</v>
       </c>
-      <c r="P93" s="95">
+      <c r="P93" s="79">
         <v>4.38</v>
       </c>
-      <c r="Q93" s="96">
+      <c r="Q93" s="78">
         <v>1.8423624999999999</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
-      <c r="B94" s="79" t="s">
+      <c r="A94" s="70"/>
+      <c r="B94" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="92">
+      <c r="C94" s="76">
         <v>5.5638805151376296</v>
       </c>
-      <c r="D94" s="93">
+      <c r="D94" s="77">
         <v>0.10601264508822</v>
       </c>
-      <c r="E94" s="93">
+      <c r="E94" s="77">
         <v>3.3400557906367498</v>
       </c>
-      <c r="F94" s="93">
+      <c r="F94" s="77">
         <v>2.1177081514904001</v>
       </c>
-      <c r="G94" s="94">
+      <c r="G94" s="76">
         <v>14.1061058960866</v>
       </c>
-      <c r="H94" s="92">
+      <c r="H94" s="77">
         <v>18.654689498088299</v>
       </c>
-      <c r="I94" s="93">
+      <c r="I94" s="77">
         <v>2.5010643946373099</v>
       </c>
-      <c r="J94" s="93">
+      <c r="J94" s="77">
         <v>0.23633766982865001</v>
       </c>
-      <c r="K94" s="93">
+      <c r="K94" s="77">
         <v>0.17501178208522999</v>
       </c>
-      <c r="L94" s="93">
+      <c r="L94" s="77">
         <v>4.9182034753159999E-2</v>
       </c>
-      <c r="M94" s="94">
+      <c r="M94" s="77">
         <v>0.82284108390326005</v>
       </c>
-      <c r="N94" s="95">
+      <c r="N94" s="77">
         <v>0.23133643348805999</v>
       </c>
-      <c r="O94" s="96">
+      <c r="O94" s="78">
         <v>19.641044888667199</v>
       </c>
-      <c r="P94" s="95">
+      <c r="P94" s="79">
         <v>4.8875000000000002</v>
       </c>
-      <c r="Q94" s="96">
+      <c r="Q94" s="78">
         <v>2.5488948484848502</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="85"/>
-      <c r="B95" s="79" t="s">
+      <c r="A95" s="70"/>
+      <c r="B95" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="92">
+      <c r="C95" s="76">
         <v>4.78312946144192</v>
       </c>
-      <c r="D95" s="93">
+      <c r="D95" s="77">
         <v>1.50772220839432</v>
       </c>
-      <c r="E95" s="93">
+      <c r="E95" s="77">
         <v>1.68905569569787</v>
       </c>
-      <c r="F95" s="93">
+      <c r="F95" s="77">
         <v>1.58635155162806</v>
       </c>
-      <c r="G95" s="94">
+      <c r="G95" s="76">
         <v>9.4422568240392497</v>
       </c>
-      <c r="H95" s="92">
+      <c r="H95" s="77">
         <v>14.7854814817627</v>
       </c>
-      <c r="I95" s="93">
+      <c r="I95" s="77">
         <v>3.4190568241205401</v>
       </c>
-      <c r="J95" s="93">
+      <c r="J95" s="77">
         <v>2.3355118697969999E-2</v>
       </c>
-      <c r="K95" s="93">
+      <c r="K95" s="77">
         <v>1.0291947670705399</v>
       </c>
-      <c r="L95" s="93">
+      <c r="L95" s="77">
         <v>4.4166095403676504</v>
       </c>
-      <c r="M95" s="94">
+      <c r="M95" s="77">
         <v>1.0462943504245401</v>
       </c>
-      <c r="N95" s="95">
+      <c r="N95" s="77">
         <v>1.1663642026954</v>
       </c>
-      <c r="O95" s="96">
+      <c r="O95" s="78">
         <v>10.5227203266271</v>
       </c>
-      <c r="P95" s="95">
+      <c r="P95" s="79">
         <v>4.1461538461538501</v>
       </c>
-      <c r="Q95" s="96">
+      <c r="Q95" s="78">
         <v>2.4147603030303002</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="85"/>
-      <c r="B96" s="79" t="s">
+      <c r="A96" s="70"/>
+      <c r="B96" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="80">
+      <c r="C96" s="66">
         <v>6.0941337440462604</v>
       </c>
-      <c r="D96" s="81">
+      <c r="D96" s="67">
         <v>0.22809322125847001</v>
       </c>
-      <c r="E96" s="99">
+      <c r="E96" s="82">
         <v>2.6672666438433401</v>
       </c>
-      <c r="F96" s="81">
+      <c r="F96" s="67">
         <v>3.2168017103709001</v>
       </c>
-      <c r="G96" s="100">
+      <c r="G96" s="66">
         <v>10.8778206306224</v>
       </c>
-      <c r="H96" s="80">
+      <c r="H96" s="67">
         <v>15.451844651601</v>
       </c>
-      <c r="I96" s="81">
+      <c r="I96" s="67">
         <v>3.8003775848931798</v>
       </c>
-      <c r="J96" s="99">
+      <c r="J96" s="82">
         <v>2.4182217201561702</v>
       </c>
-      <c r="K96" s="81">
+      <c r="K96" s="67">
         <v>2.1004089779708002</v>
       </c>
-      <c r="L96" s="81">
+      <c r="L96" s="67">
         <v>0.18914831623431</v>
       </c>
-      <c r="M96" s="82">
+      <c r="M96" s="67">
         <v>4.4425033666905502</v>
       </c>
-      <c r="N96" s="83">
+      <c r="N96" s="67">
         <v>0.42746748898362003</v>
       </c>
-      <c r="O96" s="84">
+      <c r="O96" s="68">
         <v>9.6744723664587404</v>
       </c>
-      <c r="P96" s="83">
+      <c r="P96" s="69">
         <v>4.5250000000000004</v>
       </c>
-      <c r="Q96" s="84">
+      <c r="Q96" s="68">
         <v>1.6903916666666701</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
-      <c r="B97" s="103" t="s">
+      <c r="A97" s="70"/>
+      <c r="B97" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="104">
+      <c r="C97" s="86">
         <v>3.8398873897115799</v>
       </c>
-      <c r="D97" s="105">
+      <c r="D97" s="87">
         <v>0.75577527740313</v>
       </c>
-      <c r="E97" s="93">
+      <c r="E97" s="77">
         <v>1.09509049216083</v>
       </c>
-      <c r="F97" s="105">
+      <c r="F97" s="87">
         <v>1.9890215819424</v>
       </c>
-      <c r="G97" s="94">
+      <c r="G97" s="86">
         <v>9.7811930416098392</v>
       </c>
-      <c r="H97" s="104">
+      <c r="H97" s="87">
         <v>13.616340134206</v>
       </c>
-      <c r="I97" s="105">
+      <c r="I97" s="87">
         <v>2.3932563415007002</v>
       </c>
-      <c r="J97" s="93">
+      <c r="J97" s="77">
         <v>1.68944317543128</v>
       </c>
-      <c r="K97" s="105">
+      <c r="K97" s="87">
         <v>0.32141186612394002</v>
       </c>
-      <c r="L97" s="105">
+      <c r="L97" s="87">
         <v>1.4436842351288499</v>
       </c>
-      <c r="M97" s="106">
+      <c r="M97" s="87">
         <v>1.2338504264169801</v>
       </c>
-      <c r="N97" s="107">
+      <c r="N97" s="87">
         <v>1.5117927712983501</v>
       </c>
-      <c r="O97" s="108">
+      <c r="O97" s="88">
         <v>9.8094140013072693</v>
       </c>
-      <c r="P97" s="107">
+      <c r="P97" s="89">
         <v>4</v>
       </c>
-      <c r="Q97" s="108">
+      <c r="Q97" s="88">
         <v>2.57396909722222</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="85"/>
-      <c r="B98" s="97" t="s">
+      <c r="A98" s="70"/>
+      <c r="B98" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="98">
+      <c r="C98" s="81">
         <v>7.0267662750642499</v>
       </c>
-      <c r="D98" s="99">
+      <c r="D98" s="82">
         <v>0.12966036962621</v>
       </c>
-      <c r="E98" s="99">
+      <c r="E98" s="82">
         <v>3.0421844623818899</v>
       </c>
-      <c r="F98" s="99">
+      <c r="F98" s="82">
         <v>3.85398327803347</v>
       </c>
-      <c r="G98" s="100">
+      <c r="G98" s="81">
         <v>10.4400536361329</v>
       </c>
-      <c r="H98" s="98">
+      <c r="H98" s="82">
         <v>20.8570603789179</v>
       </c>
-      <c r="I98" s="99">
+      <c r="I98" s="82">
         <v>1.93798682486873</v>
       </c>
-      <c r="J98" s="99">
+      <c r="J98" s="82">
         <v>0.58235694753518996</v>
       </c>
-      <c r="K98" s="99">
+      <c r="K98" s="82">
         <v>5.5384227732210002E-2</v>
       </c>
-      <c r="L98" s="99">
+      <c r="L98" s="82">
         <v>0.10891643180836</v>
       </c>
-      <c r="M98" s="100">
+      <c r="M98" s="82">
         <v>1.9051343863746799</v>
       </c>
-      <c r="N98" s="101">
+      <c r="N98" s="82">
         <v>1.46697002942372</v>
       </c>
-      <c r="O98" s="102">
+      <c r="O98" s="83">
         <v>18.676285180912501</v>
       </c>
-      <c r="P98" s="101">
+      <c r="P98" s="84">
         <v>3.6272727272727301</v>
       </c>
-      <c r="Q98" s="102">
+      <c r="Q98" s="83">
         <v>3.29329625</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="110"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="112"/>
-      <c r="Q99" s="112"/>
+      <c r="A99" s="91"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
+      <c r="H99" s="93"/>
+      <c r="I99" s="93"/>
+      <c r="J99" s="93"/>
+      <c r="K99" s="93"/>
+      <c r="L99" s="93"/>
+      <c r="M99" s="93"/>
+      <c r="N99" s="93"/>
+      <c r="O99" s="93"/>
+      <c r="P99" s="93"/>
+      <c r="Q99" s="93"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C100" s="113"/>
-      <c r="D100" s="113"/>
-      <c r="E100" s="113"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="113"/>
-      <c r="H100" s="113"/>
-      <c r="I100" s="113"/>
-      <c r="J100" s="113"/>
-      <c r="K100" s="113"/>
-      <c r="L100" s="113"/>
-      <c r="M100" s="113"/>
-      <c r="N100" s="113"/>
-      <c r="O100" s="113"/>
-      <c r="P100" s="113"/>
-      <c r="Q100" s="113"/>
+      <c r="C100" s="94"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="94"/>
+      <c r="G100" s="94"/>
+      <c r="H100" s="94"/>
+      <c r="I100" s="94"/>
+      <c r="J100" s="94"/>
+      <c r="K100" s="94"/>
+      <c r="L100" s="94"/>
+      <c r="M100" s="94"/>
+      <c r="N100" s="94"/>
+      <c r="O100" s="94"/>
+      <c r="P100" s="94"/>
+      <c r="Q100" s="94"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C101" s="113"/>
-      <c r="D101" s="113"/>
-      <c r="E101" s="113"/>
-      <c r="F101" s="113"/>
-      <c r="G101" s="113"/>
-      <c r="H101" s="113"/>
-      <c r="I101" s="113"/>
-      <c r="J101" s="113"/>
-      <c r="K101" s="113"/>
-      <c r="L101" s="113"/>
-      <c r="M101" s="113"/>
-      <c r="N101" s="113"/>
-      <c r="O101" s="113"/>
-      <c r="P101" s="113"/>
-      <c r="Q101" s="113"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="94"/>
+      <c r="G101" s="94"/>
+      <c r="H101" s="94"/>
+      <c r="I101" s="94"/>
+      <c r="J101" s="94"/>
+      <c r="K101" s="94"/>
+      <c r="L101" s="94"/>
+      <c r="M101" s="94"/>
+      <c r="N101" s="94"/>
+      <c r="O101" s="94"/>
+      <c r="P101" s="94"/>
+      <c r="Q101" s="94"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
-      <c r="G102" s="113"/>
-      <c r="H102" s="113"/>
-      <c r="I102" s="113"/>
-      <c r="J102" s="113"/>
-      <c r="K102" s="113"/>
-      <c r="L102" s="113"/>
-      <c r="M102" s="113"/>
-      <c r="N102" s="113"/>
-      <c r="O102" s="113"/>
-      <c r="P102" s="113"/>
-      <c r="Q102" s="113"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="94"/>
+      <c r="H102" s="94"/>
+      <c r="I102" s="94"/>
+      <c r="J102" s="94"/>
+      <c r="K102" s="94"/>
+      <c r="L102" s="94"/>
+      <c r="M102" s="94"/>
+      <c r="N102" s="94"/>
+      <c r="O102" s="94"/>
+      <c r="P102" s="94"/>
+      <c r="Q102" s="94"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C103" s="113"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
-      <c r="F103" s="113"/>
-      <c r="G103" s="113"/>
-      <c r="H103" s="113"/>
-      <c r="I103" s="113"/>
-      <c r="J103" s="113"/>
-      <c r="K103" s="113"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="113"/>
-      <c r="N103" s="113"/>
-      <c r="O103" s="113"/>
-      <c r="P103" s="113"/>
-      <c r="Q103" s="113"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="94"/>
+      <c r="L103" s="94"/>
+      <c r="M103" s="94"/>
+      <c r="N103" s="94"/>
+      <c r="O103" s="94"/>
+      <c r="P103" s="94"/>
+      <c r="Q103" s="94"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C104" s="113"/>
-      <c r="D104" s="113"/>
-      <c r="E104" s="113"/>
-      <c r="F104" s="113"/>
-      <c r="G104" s="113"/>
-      <c r="H104" s="113"/>
-      <c r="I104" s="113"/>
-      <c r="J104" s="113"/>
-      <c r="K104" s="113"/>
-      <c r="L104" s="113"/>
-      <c r="M104" s="113"/>
-      <c r="N104" s="113"/>
-      <c r="O104" s="113"/>
-      <c r="P104" s="113"/>
-      <c r="Q104" s="113"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="94"/>
+      <c r="G104" s="94"/>
+      <c r="H104" s="94"/>
+      <c r="I104" s="94"/>
+      <c r="J104" s="94"/>
+      <c r="K104" s="94"/>
+      <c r="L104" s="94"/>
+      <c r="M104" s="94"/>
+      <c r="N104" s="94"/>
+      <c r="O104" s="94"/>
+      <c r="P104" s="94"/>
+      <c r="Q104" s="94"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C105" s="113"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="113"/>
-      <c r="F105" s="113"/>
-      <c r="G105" s="113"/>
-      <c r="H105" s="113"/>
-      <c r="I105" s="113"/>
-      <c r="J105" s="113"/>
-      <c r="K105" s="113"/>
-      <c r="L105" s="113"/>
-      <c r="M105" s="113"/>
-      <c r="N105" s="113"/>
-      <c r="O105" s="113"/>
-      <c r="P105" s="113"/>
-      <c r="Q105" s="113"/>
+      <c r="C105" s="94"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="94"/>
+      <c r="H105" s="94"/>
+      <c r="I105" s="94"/>
+      <c r="J105" s="94"/>
+      <c r="K105" s="94"/>
+      <c r="L105" s="94"/>
+      <c r="M105" s="94"/>
+      <c r="N105" s="94"/>
+      <c r="O105" s="94"/>
+      <c r="P105" s="94"/>
+      <c r="Q105" s="94"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C106" s="113"/>
-      <c r="D106" s="113"/>
-      <c r="E106" s="113"/>
-      <c r="F106" s="113"/>
-      <c r="G106" s="113"/>
-      <c r="H106" s="113"/>
-      <c r="I106" s="113"/>
-      <c r="J106" s="113"/>
-      <c r="K106" s="113"/>
-      <c r="L106" s="113"/>
-      <c r="M106" s="113"/>
-      <c r="N106" s="113"/>
-      <c r="O106" s="113"/>
-      <c r="P106" s="113"/>
-      <c r="Q106" s="113"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="94"/>
+      <c r="G106" s="94"/>
+      <c r="H106" s="94"/>
+      <c r="I106" s="94"/>
+      <c r="J106" s="94"/>
+      <c r="K106" s="94"/>
+      <c r="L106" s="94"/>
+      <c r="M106" s="94"/>
+      <c r="N106" s="94"/>
+      <c r="O106" s="94"/>
+      <c r="P106" s="94"/>
+      <c r="Q106" s="94"/>
     </row>
     <row r="107" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="114" t="s">
+      <c r="B107" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="C107" s="113"/>
-      <c r="D107" s="113"/>
-      <c r="E107" s="113"/>
-      <c r="F107" s="113"/>
-      <c r="G107" s="113"/>
-      <c r="H107" s="113"/>
-      <c r="I107" s="113"/>
-      <c r="J107" s="113"/>
-      <c r="K107" s="113"/>
-      <c r="L107" s="113"/>
-      <c r="M107" s="113"/>
-      <c r="N107" s="113"/>
-      <c r="O107" s="113"/>
-      <c r="P107" s="113"/>
-      <c r="Q107" s="113"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="94"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="94"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="94"/>
+      <c r="L107" s="94"/>
+      <c r="M107" s="94"/>
+      <c r="N107" s="94"/>
+      <c r="O107" s="94"/>
+      <c r="P107" s="94"/>
+      <c r="Q107" s="94"/>
     </row>
     <row r="108" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="114"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="113"/>
-      <c r="E108" s="113"/>
-      <c r="F108" s="113"/>
-      <c r="G108" s="113"/>
-      <c r="H108" s="113"/>
-      <c r="I108" s="113"/>
-      <c r="J108" s="113"/>
-      <c r="K108" s="113"/>
-      <c r="L108" s="113"/>
-      <c r="M108" s="113"/>
-      <c r="N108" s="113"/>
-      <c r="O108" s="113"/>
-      <c r="P108" s="113"/>
-      <c r="Q108" s="113"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="94"/>
+      <c r="G108" s="94"/>
+      <c r="H108" s="94"/>
+      <c r="I108" s="94"/>
+      <c r="J108" s="94"/>
+      <c r="K108" s="94"/>
+      <c r="L108" s="94"/>
+      <c r="M108" s="94"/>
+      <c r="N108" s="94"/>
+      <c r="O108" s="94"/>
+      <c r="P108" s="94"/>
+      <c r="Q108" s="94"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="113"/>
-      <c r="D109" s="113"/>
-      <c r="E109" s="113"/>
-      <c r="F109" s="113"/>
-      <c r="G109" s="113"/>
-      <c r="H109" s="113"/>
-      <c r="I109" s="113"/>
-      <c r="J109" s="113"/>
-      <c r="K109" s="113"/>
-      <c r="L109" s="113"/>
-      <c r="M109" s="113"/>
-      <c r="N109" s="113"/>
-      <c r="O109" s="113"/>
-      <c r="P109" s="113"/>
-      <c r="Q109" s="113"/>
+      <c r="C109" s="94"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="94"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="94"/>
+      <c r="H109" s="94"/>
+      <c r="I109" s="94"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
+      <c r="L109" s="94"/>
+      <c r="M109" s="94"/>
+      <c r="N109" s="94"/>
+      <c r="O109" s="94"/>
+      <c r="P109" s="94"/>
+      <c r="Q109" s="94"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="113"/>
-      <c r="D110" s="113"/>
-      <c r="E110" s="113"/>
-      <c r="F110" s="113"/>
-      <c r="G110" s="113"/>
-      <c r="H110" s="113"/>
-      <c r="I110" s="113"/>
-      <c r="J110" s="113"/>
-      <c r="K110" s="113"/>
-      <c r="L110" s="113"/>
-      <c r="M110" s="113"/>
-      <c r="N110" s="113"/>
-      <c r="O110" s="113"/>
-      <c r="P110" s="113"/>
-      <c r="Q110" s="113"/>
+      <c r="C110" s="94"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="94"/>
+      <c r="F110" s="94"/>
+      <c r="G110" s="94"/>
+      <c r="H110" s="94"/>
+      <c r="I110" s="94"/>
+      <c r="J110" s="94"/>
+      <c r="K110" s="94"/>
+      <c r="L110" s="94"/>
+      <c r="M110" s="94"/>
+      <c r="N110" s="94"/>
+      <c r="O110" s="94"/>
+      <c r="P110" s="94"/>
+      <c r="Q110" s="94"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="116" t="s">
+      <c r="B111" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="C111" s="113"/>
-      <c r="D111" s="113"/>
-      <c r="E111" s="113"/>
-      <c r="F111" s="113"/>
-      <c r="G111" s="113"/>
-      <c r="H111" s="113"/>
-      <c r="I111" s="113"/>
-      <c r="J111" s="113"/>
-      <c r="K111" s="113"/>
-      <c r="L111" s="113"/>
-      <c r="M111" s="113"/>
-      <c r="N111" s="113"/>
-      <c r="O111" s="113"/>
-      <c r="P111" s="113"/>
-      <c r="Q111" s="113"/>
+      <c r="C111" s="94"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="94"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="94"/>
+      <c r="H111" s="94"/>
+      <c r="I111" s="94"/>
+      <c r="J111" s="94"/>
+      <c r="K111" s="94"/>
+      <c r="L111" s="94"/>
+      <c r="M111" s="94"/>
+      <c r="N111" s="94"/>
+      <c r="O111" s="94"/>
+      <c r="P111" s="94"/>
+      <c r="Q111" s="94"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="C112" s="113"/>
-      <c r="D112" s="113"/>
-      <c r="E112" s="113"/>
-      <c r="F112" s="113"/>
-      <c r="G112" s="113"/>
-      <c r="H112" s="113"/>
-      <c r="I112" s="113"/>
-      <c r="J112" s="113"/>
-      <c r="K112" s="113"/>
-      <c r="L112" s="113"/>
-      <c r="M112" s="113"/>
-      <c r="N112" s="113"/>
-      <c r="O112" s="113"/>
-      <c r="P112" s="113"/>
-      <c r="Q112" s="113"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94"/>
+      <c r="G112" s="94"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="94"/>
+      <c r="L112" s="94"/>
+      <c r="M112" s="94"/>
+      <c r="N112" s="94"/>
+      <c r="O112" s="94"/>
+      <c r="P112" s="94"/>
+      <c r="Q112" s="94"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
-      <c r="G113" s="113"/>
-      <c r="H113" s="113"/>
-      <c r="I113" s="113"/>
-      <c r="J113" s="113"/>
-      <c r="K113" s="113"/>
-      <c r="L113" s="113"/>
-      <c r="M113" s="113"/>
-      <c r="N113" s="113"/>
-      <c r="O113" s="113"/>
-      <c r="P113" s="113"/>
-      <c r="Q113" s="113"/>
+      <c r="C113" s="94"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="94"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="94"/>
+      <c r="H113" s="94"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="94"/>
+      <c r="K113" s="94"/>
+      <c r="L113" s="94"/>
+      <c r="M113" s="94"/>
+      <c r="N113" s="94"/>
+      <c r="O113" s="94"/>
+      <c r="P113" s="94"/>
+      <c r="Q113" s="94"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
-      <c r="F114" s="113"/>
-      <c r="G114" s="113"/>
-      <c r="H114" s="113"/>
-      <c r="I114" s="113"/>
-      <c r="J114" s="113"/>
-      <c r="K114" s="113"/>
-      <c r="L114" s="113"/>
-      <c r="M114" s="113"/>
-      <c r="N114" s="113"/>
-      <c r="O114" s="113"/>
-      <c r="P114" s="113"/>
-      <c r="Q114" s="113"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="94"/>
+      <c r="K114" s="94"/>
+      <c r="L114" s="94"/>
+      <c r="M114" s="94"/>
+      <c r="N114" s="94"/>
+      <c r="O114" s="94"/>
+      <c r="P114" s="94"/>
+      <c r="Q114" s="94"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1D6797AC-C267-4AB5-A37C-49A09680E046}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BE775617-57C7-41AF-A238-1344C7D26079}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{F386840C-1D16-431E-9556-2C951D89F71D}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{F768FD5B-1A8D-40B6-A7AC-E93386C70A64}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{E0E8214A-6BD9-410E-B341-E6AA092AEE20}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1319FE1F-BE20-472F-8B5D-27BA95E77D39}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E4655809-8485-4BA7-BCDD-FAF94A7DF343}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{FB2C636F-B893-4BBC-9016-69FDFA6BE8C1}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{4A23EF2F-529E-4E85-822D-E320D5207670}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{ACC83C29-1168-4687-98BE-4DAD42BEC7F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab24.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3621A48A-9674-4883-BCC5-C263449CA8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F39764-DC29-4D90-8890-95947EE4C376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{30269498-3ABB-40BC-9272-9E1725340CF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D6A4E69-0405-4F62-B086-4A8BBBC1A4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
   <si>
     <t>Tableau 24 : Investissements publics durables et épargne nette ajustée</t>
   </si>
@@ -476,13 +476,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1526,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D2AC6B-3AE5-4A53-BBB6-1F6640CCC1C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016D0592-8027-442B-B3EA-9FD4984AC230}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5353,7 +5359,7 @@
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="70"/>
       <c r="B74" s="65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74" s="76">
         <v>5.7087914406576301</v>
@@ -5404,7 +5410,7 @@
     <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="70"/>
       <c r="B75" s="65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C75" s="66">
         <v>4.0435811044865302</v>
@@ -5455,7 +5461,7 @@
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="70"/>
       <c r="B76" s="85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76" s="86">
         <v>4.1393385169768004</v>
@@ -5506,7 +5512,7 @@
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="70"/>
       <c r="B77" s="65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C77" s="76">
         <v>9.6277661049439995</v>
@@ -5557,7 +5563,7 @@
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="70"/>
       <c r="B78" s="65" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C78" s="76">
         <v>10.502321615648601</v>
@@ -5608,7 +5614,7 @@
     <row r="79" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="70"/>
       <c r="B79" s="80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C79" s="81">
         <v>12.994212476235401</v>
@@ -5659,7 +5665,7 @@
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="70"/>
       <c r="B80" s="65" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C80" s="76">
         <v>4.6909963156029804</v>
@@ -5710,7 +5716,7 @@
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="70"/>
       <c r="B81" s="65" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C81" s="76">
         <v>7.7741870088204097</v>
@@ -5761,7 +5767,7 @@
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="70"/>
       <c r="B82" s="65" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C82" s="76">
         <v>4.8646877806209998</v>
@@ -5812,7 +5818,7 @@
     <row r="83" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="70"/>
       <c r="B83" s="65" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C83" s="66">
         <v>9.4904768851106507</v>
@@ -5863,7 +5869,7 @@
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="70"/>
       <c r="B84" s="85" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C84" s="86">
         <v>4.5055273772559898</v>
@@ -5914,7 +5920,7 @@
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="70"/>
       <c r="B85" s="90" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C85" s="76">
         <v>15.539704020377201</v>
@@ -5965,7 +5971,7 @@
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="70"/>
       <c r="B86" s="65" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C86" s="76">
         <v>4.2684292132267503</v>
@@ -6016,7 +6022,7 @@
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="70"/>
       <c r="B87" s="65" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C87" s="76">
         <v>4.7111411957906597</v>
@@ -6067,7 +6073,7 @@
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="70"/>
       <c r="B88" s="65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C88" s="76">
         <v>8.1070603516072595</v>
@@ -6118,7 +6124,7 @@
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="70"/>
       <c r="B89" s="65" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C89" s="76">
         <v>6.0382462541295396</v>
@@ -6169,7 +6175,7 @@
     <row r="90" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="70"/>
       <c r="B90" s="80" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C90" s="81">
         <v>13.168344113758501</v>
@@ -6220,7 +6226,7 @@
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="70"/>
       <c r="B91" s="65" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C91" s="76">
         <v>4.2207359918918304</v>
@@ -6271,7 +6277,7 @@
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="70"/>
       <c r="B92" s="65" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C92" s="76">
         <v>3.7170637378682598</v>
@@ -6322,7 +6328,7 @@
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="70"/>
       <c r="B93" s="65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C93" s="76">
         <v>6.6667601269226102</v>
@@ -6373,7 +6379,7 @@
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="70"/>
       <c r="B94" s="65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C94" s="76">
         <v>5.5638805151376296</v>
@@ -6424,7 +6430,7 @@
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="70"/>
       <c r="B95" s="65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C95" s="76">
         <v>4.78312946144192</v>
@@ -6475,7 +6481,7 @@
     <row r="96" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="70"/>
       <c r="B96" s="65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C96" s="66">
         <v>6.0941337440462604</v>
@@ -6526,7 +6532,7 @@
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="70"/>
       <c r="B97" s="85" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C97" s="86">
         <v>3.8398873897115799</v>
@@ -6577,7 +6583,7 @@
     <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="70"/>
       <c r="B98" s="80" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C98" s="81">
         <v>7.0267662750642499</v>
@@ -6646,7 +6652,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C100" s="94"/>
       <c r="D100" s="94"/>
@@ -6666,7 +6672,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C101" s="94"/>
       <c r="D101" s="94"/>
@@ -6686,7 +6692,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C102" s="94"/>
       <c r="D102" s="94"/>
@@ -6706,7 +6712,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C103" s="94"/>
       <c r="D103" s="94"/>
@@ -6726,7 +6732,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C104" s="94"/>
       <c r="D104" s="94"/>
@@ -6746,7 +6752,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C105" s="94"/>
       <c r="D105" s="94"/>
@@ -6766,7 +6772,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C106" s="94"/>
       <c r="D106" s="94"/>
@@ -6786,7 +6792,7 @@
     </row>
     <row r="107" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="95" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C107" s="94"/>
       <c r="D107" s="94"/>
@@ -6824,7 +6830,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C109" s="94"/>
       <c r="D109" s="94"/>
@@ -6844,7 +6850,7 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C110" s="94"/>
       <c r="D110" s="94"/>
@@ -6864,7 +6870,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" s="96" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C111" s="94"/>
       <c r="D111" s="94"/>
@@ -6884,7 +6890,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B112" s="96" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C112" s="94"/>
       <c r="D112" s="94"/>
@@ -6940,11 +6946,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1319FE1F-BE20-472F-8B5D-27BA95E77D39}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E4655809-8485-4BA7-BCDD-FAF94A7DF343}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{FB2C636F-B893-4BBC-9016-69FDFA6BE8C1}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{4A23EF2F-529E-4E85-822D-E320D5207670}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{ACC83C29-1168-4687-98BE-4DAD42BEC7F6}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2F3C8FB3-09A0-4153-8625-F06928FB1E75}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7A97F6CB-8A5B-40C5-8B15-8131E73F16CD}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{BF26E618-7133-46E3-B5FF-48DD902D1F9E}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{77AA945E-B376-462C-A2A3-926475EC252E}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E3F050D4-C838-439D-924B-BCD5E6A06DB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
